--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -12,8 +12,10 @@
     <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$189</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="610">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1687,53 +1689,59 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">148
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">149
+150
 151
-154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooler: Merch Priorty STD Min faces Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин % фейсов кока-кола</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">154</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 40% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnd: Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 door cooler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min 30% Coca-Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">149
-150
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 40% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 40% кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnd: Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRAND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 door cooler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors", If not passed on one cooler,score=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min 30% Coca-Cola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Холодильники: Мерч. Стандарты. Мин 30% кока-кола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 door cooler, Open Front, Cash Cooler, Cash Cooler (Open Top)</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD Fuze and Coca-Cola shelf 2-3 </t>
@@ -2053,7 +2061,7 @@
     <numFmt numFmtId="170" formatCode="D\-MMM"/>
     <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2096,6 +2104,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2121,8 +2134,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FFCC9900"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
     <fill>
@@ -2206,7 +2219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2303,6 +2316,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2319,15 +2336,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2379,14 +2396,14 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99FF"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFCC9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -2412,56 +2429,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AM189"/>
+  <dimension ref="A1:AM188"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="22.45"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5465587044534"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3157894736842"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.0769230769231"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.6518218623482"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.5910931174089"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="44.5748987854251"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.0080971659919"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.6599190283401"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1336032388664"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.2914979757085"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.30364372469636"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="70.4858299595142"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.6396761133603"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="109.740890688259"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="53.9433198380567"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.3157894736842"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.2712550607287"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.2388663967611"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="25.7246963562753"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8097165991903"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.8178137651822"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.2631578947368"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="92.7570850202429"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="21.9716599190283"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.86234817813765"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.2753036437247"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.51417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="71.663967611336"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="111.724696356275"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.4777327935223"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.246963562753"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15206,7 +15223,7 @@
       <c r="AK163" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="AL163" s="12" t="s">
+      <c r="AL163" s="24" t="s">
         <v>505</v>
       </c>
       <c r="AM163" s="9" t="n">
@@ -15215,7 +15232,7 @@
     </row>
     <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>39</v>
@@ -15234,21 +15251,31 @@
         <v>507</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>85</v>
+        <v>408</v>
       </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
+      <c r="J164" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="9"/>
+      <c r="M164" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N164" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="O164" s="9"/>
       <c r="P164" s="9"/>
-      <c r="Q164" s="9"/>
+      <c r="Q164" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="R164" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S164" s="6"/>
+      <c r="S164" s="13" t="s">
+        <v>510</v>
+      </c>
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
@@ -15256,19 +15283,21 @@
       <c r="X164" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="Y164" s="6"/>
+      <c r="Y164" s="6" t="s">
+        <v>511</v>
+      </c>
       <c r="Z164" s="6"/>
       <c r="AA164" s="6"/>
       <c r="AB164" s="6"/>
       <c r="AC164" s="6"/>
       <c r="AD164" s="6" t="s">
-        <v>96</v>
+        <v>504</v>
       </c>
       <c r="AE164" s="8"/>
-      <c r="AF164" s="23"/>
+      <c r="AF164" s="6"/>
       <c r="AG164" s="6"/>
       <c r="AH164" s="6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AI164" s="6" t="s">
         <v>485</v>
@@ -15277,18 +15306,16 @@
         <v>3</v>
       </c>
       <c r="AK164" s="6" t="n">
-        <v>148</v>
-      </c>
-      <c r="AL164" s="12" t="s">
-        <v>509</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="AL164" s="6"/>
       <c r="AM164" s="6" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>39</v>
@@ -15301,36 +15328,36 @@
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="H165" s="6" t="s">
         <v>408</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="6" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="O165" s="9"/>
       <c r="P165" s="9"/>
       <c r="Q165" s="9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="R165" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S165" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
@@ -15359,19 +15386,19 @@
         <v>485</v>
       </c>
       <c r="AJ165" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK165" s="6" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL165" s="6"/>
       <c r="AM165" s="6" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>39</v>
@@ -15390,31 +15417,23 @@
         <v>518</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="6" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
-      <c r="M166" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="N166" s="9" t="s">
-        <v>513</v>
-      </c>
+      <c r="M166" s="6"/>
+      <c r="N166" s="9"/>
       <c r="O166" s="9"/>
       <c r="P166" s="9"/>
-      <c r="Q166" s="9" t="s">
-        <v>513</v>
-      </c>
+      <c r="Q166" s="9"/>
       <c r="R166" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S166" s="13" t="s">
-        <v>514</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="S166" s="6"/>
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
@@ -15422,9 +15441,7 @@
       <c r="X166" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="Y166" s="6" t="s">
-        <v>519</v>
-      </c>
+      <c r="Y166" s="6"/>
       <c r="Z166" s="6"/>
       <c r="AA166" s="6"/>
       <c r="AB166" s="6"/>
@@ -15436,25 +15453,27 @@
       <c r="AF166" s="6"/>
       <c r="AG166" s="6"/>
       <c r="AH166" s="6" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="AI166" s="6" t="s">
         <v>485</v>
       </c>
       <c r="AJ166" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK166" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL166" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="AL166" s="12" t="s">
+        <v>520</v>
+      </c>
       <c r="AM166" s="6" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>39</v>
@@ -15467,29 +15486,37 @@
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>414</v>
+        <v>90</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="9"/>
+      <c r="M167" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="N167" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="O167" s="9"/>
       <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
+      <c r="Q167" s="9" t="s">
+        <v>509</v>
+      </c>
       <c r="R167" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="S167" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="S167" s="13" t="s">
+        <v>510</v>
+      </c>
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
@@ -15501,35 +15528,35 @@
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
-      <c r="AC167" s="6"/>
+      <c r="AC167" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="AD167" s="6" t="s">
-        <v>504</v>
+        <v>96</v>
       </c>
       <c r="AE167" s="8"/>
       <c r="AF167" s="6"/>
       <c r="AG167" s="6"/>
       <c r="AH167" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AI167" s="6" t="s">
         <v>485</v>
       </c>
       <c r="AJ167" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK167" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="AL167" s="6"/>
+      <c r="AM167" s="6" t="n">
         <v>151</v>
-      </c>
-      <c r="AL167" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="AM167" s="6" t="n">
-        <v>147</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>39</v>
@@ -15542,10 +15569,10 @@
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G168" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="G168" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="H168" s="6" t="s">
         <v>90</v>
@@ -15557,21 +15584,21 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="N168" s="9" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
       <c r="Q168" s="9" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="R168" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S168" s="13" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
@@ -15594,7 +15621,7 @@
       <c r="AF168" s="6"/>
       <c r="AG168" s="6"/>
       <c r="AH168" s="6" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AI168" s="6" t="s">
         <v>485</v>
@@ -15603,7 +15630,7 @@
         <v>4</v>
       </c>
       <c r="AK168" s="6" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL168" s="6"/>
       <c r="AM168" s="6" t="n">
@@ -15612,7 +15639,7 @@
     </row>
     <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>39</v>
@@ -15625,36 +15652,34 @@
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="H169" s="6" t="s">
-        <v>90</v>
+        <v>528</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>529</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
-        <v>528</v>
+        <v>328</v>
       </c>
       <c r="N169" s="9" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="O169" s="9"/>
       <c r="P169" s="9"/>
-      <c r="Q169" s="9" t="s">
-        <v>529</v>
-      </c>
+      <c r="Q169" s="9"/>
       <c r="R169" s="6" t="s">
         <v>92</v>
       </c>
       <c r="S169" s="13" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
@@ -15667,9 +15692,7 @@
       <c r="Z169" s="6"/>
       <c r="AA169" s="6"/>
       <c r="AB169" s="6"/>
-      <c r="AC169" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC169" s="6"/>
       <c r="AD169" s="6" t="s">
         <v>96</v>
       </c>
@@ -15677,25 +15700,25 @@
       <c r="AF169" s="6"/>
       <c r="AG169" s="6"/>
       <c r="AH169" s="6" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="AI169" s="6" t="s">
         <v>485</v>
       </c>
       <c r="AJ169" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK169" s="6" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL169" s="6"/>
       <c r="AM169" s="6" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>39</v>
@@ -15706,35 +15729,31 @@
       <c r="D170" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E170" s="6"/>
-      <c r="F170" s="6" t="s">
+      <c r="E170" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F170" s="13" t="s">
         <v>530</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="H170" s="22" t="s">
+      <c r="H170" s="6" t="s">
         <v>532</v>
       </c>
       <c r="I170" s="6"/>
-      <c r="J170" s="6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
-      <c r="M170" s="6" t="s">
-        <v>328</v>
-      </c>
+      <c r="M170" s="6"/>
       <c r="N170" s="9" t="s">
         <v>488</v>
       </c>
       <c r="O170" s="9"/>
       <c r="P170" s="9"/>
       <c r="Q170" s="9"/>
-      <c r="R170" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S170" s="13" t="s">
+      <c r="R170" s="6"/>
+      <c r="S170" s="6" t="s">
         <v>489</v>
       </c>
       <c r="T170" s="6"/>
@@ -15750,31 +15769,33 @@
       <c r="AB170" s="6"/>
       <c r="AC170" s="6"/>
       <c r="AD170" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE170" s="8"/>
+        <v>410</v>
+      </c>
+      <c r="AE170" s="15" t="n">
+        <v>0.025</v>
+      </c>
       <c r="AF170" s="6"/>
       <c r="AG170" s="6"/>
       <c r="AH170" s="6" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="AI170" s="6" t="s">
         <v>485</v>
       </c>
       <c r="AJ170" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK170" s="6" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL170" s="6"/>
-      <c r="AM170" s="6" t="n">
-        <v>147</v>
+      <c r="AM170" s="25" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>39</v>
@@ -15783,41 +15804,41 @@
         <v>40</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E171" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E171" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="F171" s="13" t="s">
+      <c r="F171" s="6" t="s">
         <v>533</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>534</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>535</v>
+        <v>480</v>
       </c>
       <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
+      <c r="J171" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
-      <c r="N171" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="N171" s="9"/>
       <c r="O171" s="9"/>
       <c r="P171" s="9"/>
       <c r="Q171" s="9"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6" t="s">
-        <v>489</v>
-      </c>
+      <c r="R171" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S171" s="6"/>
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
       <c r="X171" s="6" t="s">
-        <v>482</v>
+        <v>533</v>
       </c>
       <c r="Y171" s="6"/>
       <c r="Z171" s="6"/>
@@ -15828,30 +15849,28 @@
         <v>410</v>
       </c>
       <c r="AE171" s="15" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="AF171" s="6"/>
       <c r="AG171" s="6"/>
-      <c r="AH171" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="AI171" s="6" t="s">
-        <v>485</v>
-      </c>
+      <c r="AH171" s="6"/>
+      <c r="AI171" s="6"/>
       <c r="AJ171" s="6" t="n">
         <v>2</v>
       </c>
       <c r="AK171" s="6" t="n">
-        <v>155</v>
-      </c>
-      <c r="AL171" s="6"/>
-      <c r="AM171" s="24" t="n">
-        <v>312</v>
+        <v>156</v>
+      </c>
+      <c r="AL171" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM171" s="26" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>39</v>
@@ -15862,7 +15881,7 @@
       <c r="D172" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E172" s="25" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -15872,29 +15891,37 @@
         <v>537</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K172" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="K172" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="9"/>
+      <c r="M172" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="N172" s="9" t="s">
+        <v>488</v>
+      </c>
       <c r="O172" s="9"/>
       <c r="P172" s="9"/>
       <c r="Q172" s="9"/>
       <c r="R172" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="S172" s="6"/>
+      <c r="S172" s="6" t="s">
+        <v>489</v>
+      </c>
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
       <c r="X172" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Y172" s="6"/>
       <c r="Z172" s="6"/>
@@ -15902,31 +15929,29 @@
       <c r="AB172" s="6"/>
       <c r="AC172" s="6"/>
       <c r="AD172" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE172" s="15" t="n">
-        <v>0.03</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="AE172" s="8"/>
       <c r="AF172" s="6"/>
       <c r="AG172" s="6"/>
-      <c r="AH172" s="6"/>
+      <c r="AH172" s="6" t="s">
+        <v>540</v>
+      </c>
       <c r="AI172" s="6"/>
       <c r="AJ172" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK172" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="AL172" s="6"/>
+      <c r="AM172" s="6" t="n">
         <v>156</v>
-      </c>
-      <c r="AL172" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="AM172" s="25" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>39</v>
@@ -15937,77 +15962,63 @@
       <c r="D173" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E173" s="24" t="s">
+      <c r="E173" s="6" t="s">
         <v>411</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>541</v>
+        <v>85</v>
       </c>
       <c r="I173" s="6"/>
-      <c r="J173" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K173" s="6" t="n">
-        <v>8</v>
-      </c>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
       <c r="L173" s="6"/>
-      <c r="M173" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="N173" s="9" t="s">
-        <v>488</v>
-      </c>
+      <c r="M173" s="6"/>
+      <c r="N173" s="9"/>
       <c r="O173" s="9"/>
       <c r="P173" s="9"/>
-      <c r="Q173" s="9"/>
-      <c r="R173" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S173" s="6" t="s">
-        <v>489</v>
-      </c>
+      <c r="Q173" s="6"/>
+      <c r="R173" s="6"/>
+      <c r="S173" s="6"/>
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
-      <c r="X173" s="6" t="s">
-        <v>536</v>
-      </c>
+      <c r="X173" s="27"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
-      <c r="AA173" s="6"/>
+      <c r="AA173" s="17"/>
       <c r="AB173" s="6"/>
       <c r="AC173" s="6"/>
       <c r="AD173" s="6" t="s">
-        <v>542</v>
+        <v>86</v>
       </c>
       <c r="AE173" s="8"/>
       <c r="AF173" s="6"/>
       <c r="AG173" s="6"/>
-      <c r="AH173" s="6" t="s">
-        <v>543</v>
-      </c>
+      <c r="AH173" s="6"/>
       <c r="AI173" s="6"/>
       <c r="AJ173" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK173" s="6" t="n">
-        <v>157</v>
-      </c>
-      <c r="AL173" s="6"/>
-      <c r="AM173" s="6" t="n">
-        <v>156</v>
+        <v>158</v>
+      </c>
+      <c r="AL173" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM173" s="25" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>39</v>
@@ -16028,53 +16039,63 @@
         <v>545</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>85</v>
+        <v>546</v>
       </c>
       <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
+      <c r="J174" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
-      <c r="N174" s="9"/>
+      <c r="N174" s="6" t="s">
+        <v>547</v>
+      </c>
       <c r="O174" s="9"/>
       <c r="P174" s="9"/>
       <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
+      <c r="R174" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S174" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
-      <c r="X174" s="26"/>
-      <c r="Y174" s="6"/>
+      <c r="X174" s="6"/>
+      <c r="Y174" s="6" t="s">
+        <v>547</v>
+      </c>
       <c r="Z174" s="6"/>
       <c r="AA174" s="17"/>
       <c r="AB174" s="6"/>
       <c r="AC174" s="6"/>
       <c r="AD174" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE174" s="8"/>
+        <v>96</v>
+      </c>
+      <c r="AE174" s="15" t="n">
+        <v>0.01</v>
+      </c>
       <c r="AF174" s="6"/>
       <c r="AG174" s="6"/>
       <c r="AH174" s="6"/>
       <c r="AI174" s="6"/>
       <c r="AJ174" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK174" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="AL174" s="6"/>
+      <c r="AM174" s="6" t="n">
         <v>158</v>
-      </c>
-      <c r="AL174" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="AM174" s="24" t="n">
-        <v>400</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>39</v>
@@ -16089,13 +16110,13 @@
         <v>411</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I175" s="6"/>
       <c r="J175" s="6" t="n">
@@ -16142,7 +16163,7 @@
         <v>3</v>
       </c>
       <c r="AK175" s="6" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL175" s="6"/>
       <c r="AM175" s="6" t="n">
@@ -16151,7 +16172,7 @@
     </row>
     <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>39</v>
@@ -16172,7 +16193,7 @@
         <v>552</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I176" s="6"/>
       <c r="J176" s="6" t="n">
@@ -16219,7 +16240,7 @@
         <v>3</v>
       </c>
       <c r="AK176" s="6" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL176" s="6"/>
       <c r="AM176" s="6" t="n">
@@ -16228,7 +16249,7 @@
     </row>
     <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>39</v>
@@ -16242,14 +16263,14 @@
       <c r="E177" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="F177" s="6" t="s">
+      <c r="F177" s="12" t="s">
         <v>554</v>
       </c>
       <c r="G177" s="6" t="s">
         <v>555</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="I177" s="6"/>
       <c r="J177" s="6" t="n">
@@ -16295,8 +16316,8 @@
       <c r="AJ177" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="AK177" s="6" t="n">
-        <v>161</v>
+      <c r="AK177" s="14" t="n">
+        <v>176</v>
       </c>
       <c r="AL177" s="6"/>
       <c r="AM177" s="6" t="n">
@@ -16305,7 +16326,7 @@
     </row>
     <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>39</v>
@@ -16314,75 +16335,63 @@
         <v>40</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="F178" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="G178" s="6" t="s">
+      <c r="E178" s="25" t="s">
         <v>558</v>
       </c>
+      <c r="F178" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="G178" s="25" t="s">
+        <v>560</v>
+      </c>
       <c r="H178" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="I178" s="6"/>
-      <c r="J178" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="I178" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="J178" s="6"/>
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
-      <c r="N178" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="O178" s="9"/>
-      <c r="P178" s="9"/>
+      <c r="N178" s="6"/>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
-      <c r="R178" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="R178" s="6"/>
       <c r="S178" s="6" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
       <c r="X178" s="6"/>
-      <c r="Y178" s="6" t="s">
-        <v>559</v>
-      </c>
+      <c r="Y178" s="6"/>
       <c r="Z178" s="6"/>
-      <c r="AA178" s="17"/>
+      <c r="AA178" s="6"/>
       <c r="AB178" s="6"/>
       <c r="AC178" s="6"/>
-      <c r="AD178" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE178" s="15" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="AD178" s="6"/>
+      <c r="AE178" s="8"/>
       <c r="AF178" s="6"/>
       <c r="AG178" s="6"/>
       <c r="AH178" s="6"/>
       <c r="AI178" s="6"/>
-      <c r="AJ178" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK178" s="14" t="n">
-        <v>176</v>
-      </c>
-      <c r="AL178" s="6"/>
-      <c r="AM178" s="6" t="n">
-        <v>158</v>
-      </c>
+      <c r="AJ178" s="6"/>
+      <c r="AK178" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="AL178" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>39</v>
@@ -16391,22 +16400,22 @@
         <v>40</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E179" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="G179" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="H179" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="F179" s="24" t="s">
+      <c r="I179" s="6" t="s">
         <v>562</v>
-      </c>
-      <c r="G179" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="I179" s="6" t="s">
-        <v>565</v>
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="6"/>
@@ -16418,7 +16427,7 @@
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
       <c r="S179" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
@@ -16438,16 +16447,16 @@
       <c r="AI179" s="6"/>
       <c r="AJ179" s="6"/>
       <c r="AK179" s="6" t="n">
-        <v>162</v>
-      </c>
-      <c r="AL179" s="6" t="n">
-        <v>95</v>
+        <v>163</v>
+      </c>
+      <c r="AL179" s="12" t="s">
+        <v>567</v>
       </c>
       <c r="AM179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>39</v>
@@ -16456,22 +16465,22 @@
         <v>40</v>
       </c>
       <c r="D180" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="F180" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E180" s="25" t="s">
         <v>568</v>
       </c>
-      <c r="G180" s="21" t="s">
+      <c r="F180" s="25" t="s">
         <v>569</v>
       </c>
+      <c r="G180" s="25" t="s">
+        <v>541</v>
+      </c>
       <c r="H180" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="6"/>
@@ -16483,7 +16492,7 @@
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
       <c r="S180" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
@@ -16503,16 +16512,16 @@
       <c r="AI180" s="6"/>
       <c r="AJ180" s="6"/>
       <c r="AK180" s="6" t="n">
-        <v>163</v>
-      </c>
-      <c r="AL180" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL180" s="14" t="s">
         <v>570</v>
       </c>
       <c r="AM180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>39</v>
@@ -16521,22 +16530,22 @@
         <v>40</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E181" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E181" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="F181" s="24" t="s">
+      <c r="F181" s="25" t="s">
         <v>572</v>
       </c>
-      <c r="G181" s="24" t="s">
-        <v>544</v>
+      <c r="G181" s="25" t="s">
+        <v>573</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="6"/>
@@ -16548,7 +16557,7 @@
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
       <c r="S181" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
@@ -16568,16 +16577,16 @@
       <c r="AI181" s="6"/>
       <c r="AJ181" s="6"/>
       <c r="AK181" s="6" t="n">
-        <v>164</v>
-      </c>
-      <c r="AL181" s="14" t="s">
-        <v>573</v>
+        <v>167</v>
+      </c>
+      <c r="AL181" s="12" t="s">
+        <v>576</v>
       </c>
       <c r="AM181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>39</v>
@@ -16586,22 +16595,22 @@
         <v>40</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E182" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="F182" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E182" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="F182" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="G182" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="H182" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="I182" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="G182" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="I182" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="6"/>
@@ -16613,7 +16622,7 @@
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
       <c r="S182" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
@@ -16633,16 +16642,16 @@
       <c r="AI182" s="6"/>
       <c r="AJ182" s="6"/>
       <c r="AK182" s="6" t="n">
-        <v>167</v>
-      </c>
-      <c r="AL182" s="12" t="s">
-        <v>579</v>
+        <v>168</v>
+      </c>
+      <c r="AL182" s="6" t="n">
+        <v>156</v>
       </c>
       <c r="AM182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>39</v>
@@ -16651,34 +16660,36 @@
         <v>40</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E183" s="24" t="s">
-        <v>580</v>
-      </c>
-      <c r="F183" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E183" s="25" t="s">
         <v>581</v>
       </c>
-      <c r="G183" s="24" t="s">
+      <c r="F183" s="25" t="s">
         <v>582</v>
       </c>
+      <c r="G183" s="25" t="s">
+        <v>583</v>
+      </c>
       <c r="H183" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
+      <c r="N183" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="O183" s="6"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
       <c r="S183" s="6" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
@@ -16698,16 +16709,14 @@
       <c r="AI183" s="6"/>
       <c r="AJ183" s="6"/>
       <c r="AK183" s="6" t="n">
-        <v>168</v>
-      </c>
-      <c r="AL183" s="6" t="n">
-        <v>156</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AL183" s="6"/>
       <c r="AM183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>39</v>
@@ -16716,42 +16725,44 @@
         <v>40</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E184" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="F184" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="G184" s="24" t="s">
-        <v>586</v>
+        <v>557</v>
+      </c>
+      <c r="E184" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F184" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="G184" s="25" t="s">
+        <v>589</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
       <c r="N184" s="6" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="O184" s="6"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
       <c r="S184" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
-      <c r="X184" s="6"/>
+      <c r="X184" s="13" t="s">
+        <v>593</v>
+      </c>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
       <c r="AA184" s="6"/>
@@ -16761,18 +16772,20 @@
       <c r="AE184" s="8"/>
       <c r="AF184" s="6"/>
       <c r="AG184" s="6"/>
-      <c r="AH184" s="6"/>
+      <c r="AH184" s="13" t="s">
+        <v>594</v>
+      </c>
       <c r="AI184" s="6"/>
       <c r="AJ184" s="6"/>
       <c r="AK184" s="6" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL184" s="6"/>
       <c r="AM184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>39</v>
@@ -16781,44 +16794,44 @@
         <v>40</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E185" s="24" t="s">
-        <v>590</v>
-      </c>
-      <c r="F185" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E185" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F185" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G185" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H185" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="I185" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="G185" s="24" t="s">
-        <v>592</v>
-      </c>
-      <c r="H185" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>594</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6" t="s">
-        <v>595</v>
+      <c r="M185" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="N185" s="12" t="s">
+        <v>600</v>
       </c>
       <c r="O185" s="6"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
       <c r="S185" s="6" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
-      <c r="X185" s="13" t="s">
-        <v>596</v>
-      </c>
+      <c r="X185" s="6"/>
       <c r="Y185" s="6"/>
       <c r="Z185" s="6"/>
       <c r="AA185" s="6"/>
@@ -16828,20 +16841,20 @@
       <c r="AE185" s="8"/>
       <c r="AF185" s="6"/>
       <c r="AG185" s="6"/>
-      <c r="AH185" s="13" t="s">
-        <v>597</v>
-      </c>
+      <c r="AH185" s="6"/>
       <c r="AI185" s="6"/>
       <c r="AJ185" s="6"/>
       <c r="AK185" s="6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AL185" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="AL185" s="6" t="n">
+        <v>91</v>
+      </c>
       <c r="AM185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>39</v>
@@ -16850,38 +16863,38 @@
         <v>40</v>
       </c>
       <c r="D186" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E186" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E186" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F186" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G186" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H186" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F186" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="G186" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="H186" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="I186" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="N186" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
       <c r="S186" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
@@ -16901,16 +16914,16 @@
       <c r="AI186" s="6"/>
       <c r="AJ186" s="6"/>
       <c r="AK186" s="6" t="n">
-        <v>172</v>
-      </c>
-      <c r="AL186" s="6" t="n">
-        <v>91</v>
+        <v>173</v>
+      </c>
+      <c r="AL186" s="9" t="n">
+        <v>100</v>
       </c>
       <c r="AM186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>39</v>
@@ -16919,38 +16932,38 @@
         <v>40</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E187" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E187" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F187" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G187" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H187" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F187" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="G187" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="H187" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="I187" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="N187" s="12" t="s">
-        <v>603</v>
+        <v>599</v>
+      </c>
+      <c r="N187" s="28" t="s">
+        <v>601</v>
       </c>
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
       <c r="S187" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
@@ -16970,16 +16983,16 @@
       <c r="AI187" s="6"/>
       <c r="AJ187" s="6"/>
       <c r="AK187" s="6" t="n">
-        <v>173</v>
-      </c>
-      <c r="AL187" s="9" t="n">
-        <v>100</v>
+        <v>174</v>
+      </c>
+      <c r="AL187" s="6" t="n">
+        <v>110</v>
       </c>
       <c r="AM187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>39</v>
@@ -16988,38 +17001,38 @@
         <v>40</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E188" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="E188" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="F188" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="G188" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="H188" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="F188" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="G188" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="I188" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="N188" s="28" t="s">
         <v>602</v>
-      </c>
-      <c r="N188" s="27" t="s">
-        <v>604</v>
       </c>
       <c r="O188" s="6"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
       <c r="S188" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
@@ -17039,84 +17052,15 @@
       <c r="AI188" s="6"/>
       <c r="AJ188" s="6"/>
       <c r="AK188" s="6" t="n">
-        <v>174</v>
-      </c>
-      <c r="AL188" s="6" t="n">
-        <v>110</v>
+        <v>175</v>
+      </c>
+      <c r="AL188" s="14" t="s">
+        <v>603</v>
       </c>
       <c r="AM188" s="6"/>
     </row>
-    <row r="189" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="n">
-        <v>173</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>598</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>599</v>
-      </c>
-      <c r="G189" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="H189" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="I189" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="J189" s="6"/>
-      <c r="K189" s="6"/>
-      <c r="L189" s="6"/>
-      <c r="M189" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="N189" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="O189" s="6"/>
-      <c r="P189" s="6"/>
-      <c r="Q189" s="6"/>
-      <c r="R189" s="6"/>
-      <c r="S189" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-      <c r="X189" s="6"/>
-      <c r="Y189" s="6"/>
-      <c r="Z189" s="6"/>
-      <c r="AA189" s="6"/>
-      <c r="AB189" s="6"/>
-      <c r="AC189" s="6"/>
-      <c r="AD189" s="6"/>
-      <c r="AE189" s="8"/>
-      <c r="AF189" s="6"/>
-      <c r="AG189" s="6"/>
-      <c r="AH189" s="6"/>
-      <c r="AI189" s="6"/>
-      <c r="AJ189" s="6"/>
-      <c r="AK189" s="6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL189" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="AM189" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AM189"/>
+  <autoFilter ref="A1:AM188"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -17145,49 +17089,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="30" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="M1" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="I1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="29" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="31" t="s">
         <v>609</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>610</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
-        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -16,6 +16,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="610">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1689,26 +1691,10 @@
     <t xml:space="preserve">CONDITIONAL PROPORTIONAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">149
+    <t xml:space="preserve">149
 150
 151
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">154</t>
-    </r>
+154</t>
   </si>
   <si>
     <t xml:space="preserve">Min 40% Coca-Cola</t>
@@ -2061,7 +2047,7 @@
     <numFmt numFmtId="170" formatCode="D\-MMM"/>
     <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2102,11 +2088,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2219,7 +2200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2316,10 +2297,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2336,15 +2313,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2431,53 +2408,53 @@
   </sheetPr>
   <dimension ref="A1:AM188"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="X131" activeCellId="0" sqref="X131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.4574898785425"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="71.663967611336"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="111.724696356275"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="72.9473684210526"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="113.761133603239"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.1012145748988"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.4777327935223"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.085020242915"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.21052631578947"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -15223,7 +15200,7 @@
       <c r="AK163" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="AL163" s="24" t="s">
+      <c r="AL163" s="12" t="s">
         <v>505</v>
       </c>
       <c r="AM163" s="9" t="n">
@@ -15528,8 +15505,8 @@
       <c r="Z167" s="6"/>
       <c r="AA167" s="6"/>
       <c r="AB167" s="6"/>
-      <c r="AC167" s="6" t="n">
-        <v>2</v>
+      <c r="AC167" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="AD167" s="6" t="s">
         <v>96</v>
@@ -15611,8 +15588,8 @@
       <c r="Z168" s="6"/>
       <c r="AA168" s="6"/>
       <c r="AB168" s="6"/>
-      <c r="AC168" s="6" t="n">
-        <v>2</v>
+      <c r="AC168" s="6" t="s">
+        <v>415</v>
       </c>
       <c r="AD168" s="6" t="s">
         <v>96</v>
@@ -15789,7 +15766,7 @@
         <v>155</v>
       </c>
       <c r="AL170" s="6"/>
-      <c r="AM170" s="25" t="n">
+      <c r="AM170" s="24" t="n">
         <v>312</v>
       </c>
     </row>
@@ -15806,7 +15783,7 @@
       <c r="D171" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E171" s="25" t="s">
+      <c r="E171" s="24" t="s">
         <v>411</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -15864,7 +15841,7 @@
       <c r="AL171" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AM171" s="26" t="n">
+      <c r="AM171" s="25" t="n">
         <v>301</v>
       </c>
     </row>
@@ -15881,7 +15858,7 @@
       <c r="D172" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E172" s="25" t="s">
+      <c r="E172" s="24" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -15989,7 +15966,7 @@
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
-      <c r="X173" s="27"/>
+      <c r="X173" s="26"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="17"/>
@@ -16012,7 +15989,7 @@
       <c r="AL173" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="AM173" s="25" t="n">
+      <c r="AM173" s="24" t="n">
         <v>400</v>
       </c>
     </row>
@@ -16337,13 +16314,13 @@
       <c r="D178" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E178" s="25" t="s">
+      <c r="E178" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="F178" s="25" t="s">
+      <c r="F178" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="G178" s="25" t="s">
+      <c r="G178" s="24" t="s">
         <v>560</v>
       </c>
       <c r="H178" s="6" t="s">
@@ -16467,13 +16444,13 @@
       <c r="D180" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E180" s="25" t="s">
+      <c r="E180" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="F180" s="25" t="s">
+      <c r="F180" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="G180" s="25" t="s">
+      <c r="G180" s="24" t="s">
         <v>541</v>
       </c>
       <c r="H180" s="6" t="s">
@@ -16532,13 +16509,13 @@
       <c r="D181" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E181" s="25" t="s">
+      <c r="E181" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="F181" s="25" t="s">
+      <c r="F181" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="G181" s="25" t="s">
+      <c r="G181" s="24" t="s">
         <v>573</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -16597,13 +16574,13 @@
       <c r="D182" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E182" s="25" t="s">
+      <c r="E182" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="F182" s="25" t="s">
+      <c r="F182" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="G182" s="25" t="s">
+      <c r="G182" s="24" t="s">
         <v>579</v>
       </c>
       <c r="H182" s="6" t="s">
@@ -16662,13 +16639,13 @@
       <c r="D183" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E183" s="25" t="s">
+      <c r="E183" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="F183" s="25" t="s">
+      <c r="F183" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="G183" s="25" t="s">
+      <c r="G183" s="24" t="s">
         <v>583</v>
       </c>
       <c r="H183" s="6" t="s">
@@ -16727,13 +16704,13 @@
       <c r="D184" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E184" s="25" t="s">
+      <c r="E184" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="F184" s="25" t="s">
+      <c r="F184" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="G184" s="25" t="s">
+      <c r="G184" s="24" t="s">
         <v>589</v>
       </c>
       <c r="H184" s="6" t="s">
@@ -16796,13 +16773,13 @@
       <c r="D185" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E185" s="25" t="s">
+      <c r="E185" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="F185" s="25" t="s">
+      <c r="F185" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="G185" s="25" t="s">
+      <c r="G185" s="24" t="s">
         <v>597</v>
       </c>
       <c r="H185" s="6" t="s">
@@ -16865,13 +16842,13 @@
       <c r="D186" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E186" s="25" t="s">
+      <c r="E186" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="F186" s="25" t="s">
+      <c r="F186" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="G186" s="25" t="s">
+      <c r="G186" s="24" t="s">
         <v>597</v>
       </c>
       <c r="H186" s="6" t="s">
@@ -16934,13 +16911,13 @@
       <c r="D187" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E187" s="25" t="s">
+      <c r="E187" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="F187" s="25" t="s">
+      <c r="F187" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="G187" s="25" t="s">
+      <c r="G187" s="24" t="s">
         <v>597</v>
       </c>
       <c r="H187" s="6" t="s">
@@ -16955,7 +16932,7 @@
       <c r="M187" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="N187" s="28" t="s">
+      <c r="N187" s="27" t="s">
         <v>601</v>
       </c>
       <c r="O187" s="6"/>
@@ -17003,13 +16980,13 @@
       <c r="D188" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E188" s="25" t="s">
+      <c r="E188" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="F188" s="25" t="s">
+      <c r="F188" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="G188" s="25" t="s">
+      <c r="G188" s="24" t="s">
         <v>597</v>
       </c>
       <c r="H188" s="6" t="s">
@@ -17024,7 +17001,7 @@
       <c r="M188" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="N188" s="28" t="s">
+      <c r="N188" s="27" t="s">
         <v>602</v>
       </c>
       <c r="O188" s="6"/>
@@ -17089,48 +17066,48 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>604</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>605</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>606</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>607</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>609</v>
       </c>
     </row>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -9,15 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="Conv_B_CAP" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Alcomarket" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="604">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1667,7 +1666,7 @@
     <t xml:space="preserve">NUM_SCENES</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area</t>
+    <t xml:space="preserve">Regular checkouts,  Bakery, Entrance of SSD section, Food and beverage prep area, 1/3 of the Store</t>
   </si>
   <si>
     <t xml:space="preserve">Calculate only for doors that were passed KPI "Cooler: CCH Cooler Doors"</t>
@@ -1756,10 +1755,10 @@
     <t xml:space="preserve">Холодильники: Мерч. Стандарты. Фьюз на 2-3 полке</t>
   </si>
   <si>
-    <t xml:space="preserve">Barnd: Fuze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fuze</t>
+    <t xml:space="preserve">Barnd: Fuzetea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzetea</t>
   </si>
   <si>
     <t xml:space="preserve">Cooler: Merch Priorty STD every SKUs min 2 facing</t>
@@ -1852,7 +1851,7 @@
     <t xml:space="preserve">Impulse Активации: Добрый Яблоко 0.33л в выпечке</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobriy 0.33 in Bakery</t>
+    <t xml:space="preserve">Dobriy 0.33 in Bakery </t>
   </si>
   <si>
     <t xml:space="preserve">Hidden</t>
@@ -2013,24 +2012,6 @@
 161
 176
 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI Score Formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI weighted Score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base KPI for TOP 5 GAPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI from POS 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Will be added on the 16th of December</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2028,7 @@
     <numFmt numFmtId="170" formatCode="D\-MMM"/>
     <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2090,23 +2071,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2145,12 +2117,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFCCFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2163,13 +2141,6 @@
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -2293,7 +2264,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2309,20 +2288,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2385,7 +2356,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -2408,57 +2379,57 @@
   </sheetPr>
   <dimension ref="A1:AM188"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="X131" activeCellId="0" sqref="X131"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="Q165" activeCellId="0" sqref="Q165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7732793522267"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="32.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="72.9473684210526"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="113.761133603239"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.7004048582996"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="73.5910931174089"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="114.724696356275"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.1295546558704"/>
     <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.8178137651822"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.085020242915"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.497975708502"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.9433198380567"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2577,7 +2548,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>174</v>
       </c>
@@ -2638,7 +2609,7 @@
       </c>
       <c r="AM2" s="6"/>
     </row>
-    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>175</v>
       </c>
@@ -2699,7 +2670,7 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>176</v>
       </c>
@@ -2762,7 +2733,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>177</v>
       </c>
@@ -2825,7 +2796,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>178</v>
       </c>
@@ -2886,7 +2857,7 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>179</v>
       </c>
@@ -2949,7 +2920,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>180</v>
       </c>
@@ -3012,7 +2983,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>181</v>
       </c>
@@ -3073,7 +3044,7 @@
       </c>
       <c r="AM9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>182</v>
       </c>
@@ -3136,7 +3107,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>183</v>
       </c>
@@ -3199,7 +3170,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>184</v>
       </c>
@@ -3262,7 +3233,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>185</v>
       </c>
@@ -3325,7 +3296,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>186</v>
       </c>
@@ -3388,7 +3359,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>187</v>
       </c>
@@ -3451,7 +3422,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>188</v>
       </c>
@@ -3512,7 +3483,7 @@
       </c>
       <c r="AM16" s="6"/>
     </row>
-    <row r="17" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>1</v>
       </c>
@@ -3579,7 +3550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>2</v>
       </c>
@@ -3660,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>3</v>
       </c>
@@ -3741,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>4</v>
       </c>
@@ -3822,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>5</v>
       </c>
@@ -3903,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>6</v>
       </c>
@@ -3984,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>7</v>
       </c>
@@ -4065,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>8</v>
       </c>
@@ -4146,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>9</v>
       </c>
@@ -4227,7 +4198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>10</v>
       </c>
@@ -4308,7 +4279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>11</v>
       </c>
@@ -4389,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>12</v>
       </c>
@@ -4470,7 +4441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>13</v>
       </c>
@@ -4551,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>14</v>
       </c>
@@ -4632,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>15</v>
       </c>
@@ -4713,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>16</v>
       </c>
@@ -4794,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>17</v>
       </c>
@@ -4875,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>18</v>
       </c>
@@ -4956,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>19</v>
       </c>
@@ -5037,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>20</v>
       </c>
@@ -5118,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>21</v>
       </c>
@@ -5199,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>22</v>
       </c>
@@ -5280,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>23</v>
       </c>
@@ -5361,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>24</v>
       </c>
@@ -5442,7 +5413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>25</v>
       </c>
@@ -5523,7 +5494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>26</v>
       </c>
@@ -5604,7 +5575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>27</v>
       </c>
@@ -5685,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>28</v>
       </c>
@@ -5766,7 +5737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>29</v>
       </c>
@@ -5847,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>30</v>
       </c>
@@ -5928,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>31</v>
       </c>
@@ -6009,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>32</v>
       </c>
@@ -6076,7 +6047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>33</v>
       </c>
@@ -6157,7 +6128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>34</v>
       </c>
@@ -6238,7 +6209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>35</v>
       </c>
@@ -6319,7 +6290,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>36</v>
       </c>
@@ -6400,7 +6371,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>37</v>
       </c>
@@ -6481,7 +6452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>38</v>
       </c>
@@ -6562,7 +6533,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>39</v>
       </c>
@@ -6629,7 +6600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>40</v>
       </c>
@@ -6710,7 +6681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>41</v>
       </c>
@@ -6791,7 +6762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>42</v>
       </c>
@@ -6872,7 +6843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>43</v>
       </c>
@@ -6953,7 +6924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>44</v>
       </c>
@@ -7034,7 +7005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>45</v>
       </c>
@@ -7101,7 +7072,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>46</v>
       </c>
@@ -7182,7 +7153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>47</v>
       </c>
@@ -7263,7 +7234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>48</v>
       </c>
@@ -7344,7 +7315,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>49</v>
       </c>
@@ -7425,7 +7396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>50</v>
       </c>
@@ -7506,7 +7477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>51</v>
       </c>
@@ -7587,7 +7558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>52</v>
       </c>
@@ -7668,7 +7639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>53</v>
       </c>
@@ -7735,7 +7706,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>54</v>
       </c>
@@ -7816,7 +7787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>55</v>
       </c>
@@ -7897,7 +7868,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>56</v>
       </c>
@@ -7978,7 +7949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>57</v>
       </c>
@@ -8059,7 +8030,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>58</v>
       </c>
@@ -8140,7 +8111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>59</v>
       </c>
@@ -8221,7 +8192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>60</v>
       </c>
@@ -8302,7 +8273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>61</v>
       </c>
@@ -8383,7 +8354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>62</v>
       </c>
@@ -8464,7 +8435,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>63</v>
       </c>
@@ -8545,7 +8516,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>64</v>
       </c>
@@ -8626,7 +8597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>65</v>
       </c>
@@ -8707,7 +8678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>66</v>
       </c>
@@ -8788,7 +8759,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>67</v>
       </c>
@@ -8869,7 +8840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>68</v>
       </c>
@@ -8950,7 +8921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>69</v>
       </c>
@@ -9031,7 +9002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>70</v>
       </c>
@@ -9112,7 +9083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>71</v>
       </c>
@@ -9193,7 +9164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>72</v>
       </c>
@@ -9274,7 +9245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>73</v>
       </c>
@@ -9355,7 +9326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>74</v>
       </c>
@@ -9436,7 +9407,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>75</v>
       </c>
@@ -9517,7 +9488,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>76</v>
       </c>
@@ -9598,7 +9569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>77</v>
       </c>
@@ -9679,7 +9650,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>78</v>
       </c>
@@ -9760,7 +9731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>79</v>
       </c>
@@ -9841,7 +9812,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>80</v>
       </c>
@@ -9922,7 +9893,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>81</v>
       </c>
@@ -10003,7 +9974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>82</v>
       </c>
@@ -10084,7 +10055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>83</v>
       </c>
@@ -10165,7 +10136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>84</v>
       </c>
@@ -10246,7 +10217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>85</v>
       </c>
@@ -10327,7 +10298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>86</v>
       </c>
@@ -10408,7 +10379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>87</v>
       </c>
@@ -10489,7 +10460,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>88</v>
       </c>
@@ -10570,7 +10541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>89</v>
       </c>
@@ -10651,7 +10622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>90</v>
       </c>
@@ -10732,7 +10703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>91</v>
       </c>
@@ -10809,7 +10780,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>92</v>
       </c>
@@ -10890,7 +10861,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>93</v>
       </c>
@@ -10967,7 +10938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>94</v>
       </c>
@@ -11048,7 +11019,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>95</v>
       </c>
@@ -11129,7 +11100,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>96</v>
       </c>
@@ -11208,7 +11179,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>97</v>
       </c>
@@ -11287,7 +11258,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>98</v>
       </c>
@@ -11366,7 +11337,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>99</v>
       </c>
@@ -11445,7 +11416,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>100</v>
       </c>
@@ -11522,7 +11493,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>101</v>
       </c>
@@ -11603,7 +11574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>102</v>
       </c>
@@ -11680,7 +11651,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>103</v>
       </c>
@@ -11755,7 +11726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>104</v>
       </c>
@@ -11834,7 +11805,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>105</v>
       </c>
@@ -11913,7 +11884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>106</v>
       </c>
@@ -11990,7 +11961,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>107</v>
       </c>
@@ -12071,7 +12042,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>108</v>
       </c>
@@ -12148,7 +12119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>109</v>
       </c>
@@ -12229,7 +12200,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>110</v>
       </c>
@@ -12303,7 +12274,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>111</v>
       </c>
@@ -12381,7 +12352,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>112</v>
       </c>
@@ -12455,7 +12426,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>113</v>
       </c>
@@ -12527,7 +12498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>114</v>
       </c>
@@ -12605,7 +12576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>115</v>
       </c>
@@ -12681,7 +12652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>116</v>
       </c>
@@ -12762,7 +12733,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>117</v>
       </c>
@@ -12839,7 +12810,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>118</v>
       </c>
@@ -12918,7 +12889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>119</v>
       </c>
@@ -12997,7 +12968,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>120</v>
       </c>
@@ -13076,7 +13047,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>121</v>
       </c>
@@ -13155,7 +13126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>122</v>
       </c>
@@ -13234,7 +13205,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>123</v>
       </c>
@@ -13313,7 +13284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>124</v>
       </c>
@@ -13392,7 +13363,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>125</v>
       </c>
@@ -13471,7 +13442,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>126</v>
       </c>
@@ -13550,7 +13521,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>127</v>
       </c>
@@ -13631,7 +13602,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>128</v>
       </c>
@@ -13708,7 +13679,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>129</v>
       </c>
@@ -13787,7 +13758,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>130</v>
       </c>
@@ -13866,7 +13837,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>131</v>
       </c>
@@ -13945,7 +13916,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>132</v>
       </c>
@@ -14024,7 +13995,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>133</v>
       </c>
@@ -14103,7 +14074,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>134</v>
       </c>
@@ -14184,7 +14155,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>135</v>
       </c>
@@ -14261,7 +14232,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>136</v>
       </c>
@@ -14340,7 +14311,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>137</v>
       </c>
@@ -14421,7 +14392,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>138</v>
       </c>
@@ -14498,7 +14469,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>139</v>
       </c>
@@ -14577,7 +14548,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>140</v>
       </c>
@@ -14656,7 +14627,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>141</v>
       </c>
@@ -14737,7 +14708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>142</v>
       </c>
@@ -14812,7 +14783,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>143</v>
       </c>
@@ -14889,7 +14860,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>144</v>
       </c>
@@ -14964,7 +14935,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>145</v>
       </c>
@@ -15006,7 +14977,7 @@
       </c>
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
-      <c r="V161" s="6" t="s">
+      <c r="V161" s="22" t="s">
         <v>497</v>
       </c>
       <c r="W161" s="6"/>
@@ -15043,7 +15014,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>146</v>
       </c>
@@ -15065,7 +15036,7 @@
       <c r="G162" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="H162" s="22" t="s">
+      <c r="H162" s="23" t="s">
         <v>501</v>
       </c>
       <c r="I162" s="6"/>
@@ -15126,7 +15097,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>147</v>
       </c>
@@ -15182,7 +15153,7 @@
       <c r="AE163" s="15" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF163" s="23" t="n">
+      <c r="AF163" s="24" t="n">
         <v>0.5</v>
       </c>
       <c r="AG163" s="6" t="n">
@@ -15207,7 +15178,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>149</v>
       </c>
@@ -15290,7 +15261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>150</v>
       </c>
@@ -15373,7 +15344,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>151</v>
       </c>
@@ -15448,7 +15419,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>152</v>
       </c>
@@ -15531,7 +15502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>153</v>
       </c>
@@ -15560,15 +15531,15 @@
       </c>
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
-      <c r="M168" s="6" t="s">
+      <c r="M168" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="N168" s="9" t="s">
+      <c r="N168" s="25" t="s">
         <v>526</v>
       </c>
       <c r="O168" s="9"/>
       <c r="P168" s="9"/>
-      <c r="Q168" s="9" t="s">
+      <c r="Q168" s="25" t="s">
         <v>526</v>
       </c>
       <c r="R168" s="6" t="s">
@@ -15614,7 +15585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>154</v>
       </c>
@@ -15634,7 +15605,7 @@
       <c r="G169" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H169" s="22" t="s">
+      <c r="H169" s="23" t="s">
         <v>529</v>
       </c>
       <c r="I169" s="6"/>
@@ -15693,7 +15664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>155</v>
       </c>
@@ -15766,11 +15737,11 @@
         <v>155</v>
       </c>
       <c r="AL170" s="6"/>
-      <c r="AM170" s="24" t="n">
+      <c r="AM170" s="26" t="n">
         <v>312</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>156</v>
       </c>
@@ -15783,7 +15754,7 @@
       <c r="D171" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E171" s="24" t="s">
+      <c r="E171" s="26" t="s">
         <v>411</v>
       </c>
       <c r="F171" s="6" t="s">
@@ -15841,11 +15812,11 @@
       <c r="AL171" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="AM171" s="25" t="n">
+      <c r="AM171" s="27" t="n">
         <v>301</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>157</v>
       </c>
@@ -15858,7 +15829,7 @@
       <c r="D172" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E172" s="24" t="s">
+      <c r="E172" s="26" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="6" t="s">
@@ -15926,7 +15897,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="6" t="n">
         <v>158</v>
       </c>
@@ -15966,7 +15937,7 @@
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
-      <c r="X173" s="26"/>
+      <c r="X173" s="28"/>
       <c r="Y173" s="6"/>
       <c r="Z173" s="6"/>
       <c r="AA173" s="17"/>
@@ -15989,11 +15960,11 @@
       <c r="AL173" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="AM173" s="24" t="n">
+      <c r="AM173" s="26" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="6" t="n">
         <v>159</v>
       </c>
@@ -16070,7 +16041,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="n">
         <v>160</v>
       </c>
@@ -16147,7 +16118,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="n">
         <v>161</v>
       </c>
@@ -16224,7 +16195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="n">
         <v>162</v>
       </c>
@@ -16256,7 +16227,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
-      <c r="N177" s="6" t="s">
+      <c r="N177" s="29" t="s">
         <v>556</v>
       </c>
       <c r="O177" s="9"/>
@@ -16273,7 +16244,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
       <c r="X177" s="6"/>
-      <c r="Y177" s="6" t="s">
+      <c r="Y177" s="29" t="s">
         <v>556</v>
       </c>
       <c r="Z177" s="6"/>
@@ -16301,7 +16272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="n">
         <v>163</v>
       </c>
@@ -16314,13 +16285,13 @@
       <c r="D178" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E178" s="24" t="s">
+      <c r="E178" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="F178" s="24" t="s">
+      <c r="F178" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G178" s="24" t="s">
+      <c r="G178" s="26" t="s">
         <v>560</v>
       </c>
       <c r="H178" s="6" t="s">
@@ -16366,7 +16337,7 @@
       </c>
       <c r="AM178" s="6"/>
     </row>
-    <row r="179" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="6" t="n">
         <v>164</v>
       </c>
@@ -16431,7 +16402,7 @@
       </c>
       <c r="AM179" s="6"/>
     </row>
-    <row r="180" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="6" t="n">
         <v>165</v>
       </c>
@@ -16444,13 +16415,13 @@
       <c r="D180" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E180" s="24" t="s">
+      <c r="E180" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="F180" s="24" t="s">
+      <c r="F180" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="G180" s="24" t="s">
+      <c r="G180" s="26" t="s">
         <v>541</v>
       </c>
       <c r="H180" s="6" t="s">
@@ -16496,7 +16467,7 @@
       </c>
       <c r="AM180" s="6"/>
     </row>
-    <row r="181" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="6" t="n">
         <v>166</v>
       </c>
@@ -16509,13 +16480,13 @@
       <c r="D181" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E181" s="24" t="s">
+      <c r="E181" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="F181" s="24" t="s">
+      <c r="F181" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="G181" s="24" t="s">
+      <c r="G181" s="26" t="s">
         <v>573</v>
       </c>
       <c r="H181" s="6" t="s">
@@ -16561,7 +16532,7 @@
       </c>
       <c r="AM181" s="6"/>
     </row>
-    <row r="182" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="6" t="n">
         <v>167</v>
       </c>
@@ -16574,13 +16545,13 @@
       <c r="D182" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E182" s="24" t="s">
+      <c r="E182" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="F182" s="24" t="s">
+      <c r="F182" s="26" t="s">
         <v>578</v>
       </c>
-      <c r="G182" s="24" t="s">
+      <c r="G182" s="26" t="s">
         <v>579</v>
       </c>
       <c r="H182" s="6" t="s">
@@ -16626,7 +16597,7 @@
       </c>
       <c r="AM182" s="6"/>
     </row>
-    <row r="183" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="6" t="n">
         <v>168</v>
       </c>
@@ -16639,13 +16610,13 @@
       <c r="D183" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E183" s="24" t="s">
+      <c r="E183" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F183" s="24" t="s">
+      <c r="F183" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="G183" s="24" t="s">
+      <c r="G183" s="26" t="s">
         <v>583</v>
       </c>
       <c r="H183" s="6" t="s">
@@ -16691,7 +16662,7 @@
       <c r="AL183" s="6"/>
       <c r="AM183" s="6"/>
     </row>
-    <row r="184" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="6" t="n">
         <v>169</v>
       </c>
@@ -16704,13 +16675,13 @@
       <c r="D184" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E184" s="24" t="s">
+      <c r="E184" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="F184" s="24" t="s">
+      <c r="F184" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="G184" s="24" t="s">
+      <c r="G184" s="26" t="s">
         <v>589</v>
       </c>
       <c r="H184" s="6" t="s">
@@ -16760,7 +16731,7 @@
       <c r="AL184" s="6"/>
       <c r="AM184" s="6"/>
     </row>
-    <row r="185" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="6" t="n">
         <v>170</v>
       </c>
@@ -16773,13 +16744,13 @@
       <c r="D185" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E185" s="24" t="s">
+      <c r="E185" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="F185" s="24" t="s">
+      <c r="F185" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="G185" s="24" t="s">
+      <c r="G185" s="26" t="s">
         <v>597</v>
       </c>
       <c r="H185" s="6" t="s">
@@ -16829,7 +16800,7 @@
       </c>
       <c r="AM185" s="6"/>
     </row>
-    <row r="186" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="6" t="n">
         <v>171</v>
       </c>
@@ -16842,13 +16813,13 @@
       <c r="D186" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E186" s="24" t="s">
+      <c r="E186" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="F186" s="24" t="s">
+      <c r="F186" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="G186" s="24" t="s">
+      <c r="G186" s="26" t="s">
         <v>597</v>
       </c>
       <c r="H186" s="6" t="s">
@@ -16898,7 +16869,7 @@
       </c>
       <c r="AM186" s="6"/>
     </row>
-    <row r="187" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="6" t="n">
         <v>172</v>
       </c>
@@ -16911,13 +16882,13 @@
       <c r="D187" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E187" s="24" t="s">
+      <c r="E187" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="F187" s="24" t="s">
+      <c r="F187" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="G187" s="24" t="s">
+      <c r="G187" s="26" t="s">
         <v>597</v>
       </c>
       <c r="H187" s="6" t="s">
@@ -16932,7 +16903,7 @@
       <c r="M187" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="N187" s="27" t="s">
+      <c r="N187" s="30" t="s">
         <v>601</v>
       </c>
       <c r="O187" s="6"/>
@@ -16967,7 +16938,7 @@
       </c>
       <c r="AM187" s="6"/>
     </row>
-    <row r="188" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="6" t="n">
         <v>173</v>
       </c>
@@ -16980,13 +16951,13 @@
       <c r="D188" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E188" s="24" t="s">
+      <c r="E188" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="F188" s="24" t="s">
+      <c r="F188" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="G188" s="24" t="s">
+      <c r="G188" s="26" t="s">
         <v>597</v>
       </c>
       <c r="H188" s="6" t="s">
@@ -17001,7 +16972,7 @@
       <c r="M188" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="N188" s="27" t="s">
+      <c r="N188" s="30" t="s">
         <v>602</v>
       </c>
       <c r="O188" s="6"/>
@@ -17040,84 +17011,11 @@
   <autoFilter ref="A1:AM188"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M4"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>604</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>605</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>606</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>607</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$188</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1218,8 +1219,7 @@
   <si>
     <t xml:space="preserve">101
 102
-103
-</t>
+103</t>
   </si>
   <si>
     <t xml:space="preserve">Juice Display 1st: Facings</t>
@@ -1322,8 +1322,7 @@
   <si>
     <t xml:space="preserve">111
 112
-113
-</t>
+113</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Facings</t>
@@ -1351,8 +1350,7 @@
   </si>
   <si>
     <t xml:space="preserve">114
-115
-</t>
+115</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Lead SKU:BonAqua Still - 1L</t>
@@ -2380,52 +2378,52 @@
   <dimension ref="A1:AM188"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q165" activeCellId="0" sqref="Q165"/>
+      <selection pane="bottomLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.8785425101215"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.7732793522267"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.2024291497976"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.1012145748988"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.7044534412956"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="73.5910931174089"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="114.724696356275"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="74.2348178137652"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="115.793522267207"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.9433198380567"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="97.6923076923077"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="607">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -1538,11 +1539,6 @@
   </si>
   <si>
     <t xml:space="preserve">Вода полка: Золотая Полка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135
-136
-</t>
   </si>
   <si>
     <t xml:space="preserve">Water Shelf: BonAqua Still - 1L</t>
@@ -2448,53 +2444,53 @@
   </sheetPr>
   <dimension ref="A1:AM191"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="Y165" activeCellId="0" sqref="Y165"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.6275303643725"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.4493927125506"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="85.2672064777328"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="122.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.417004048583"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.0161943319838"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="93.5141700404858"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.3724696356275"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -14260,8 +14256,8 @@
       <c r="AK151" s="7" t="n">
         <v>135</v>
       </c>
-      <c r="AL151" s="13" t="s">
-        <v>459</v>
+      <c r="AL151" s="13" t="n">
+        <v>136</v>
       </c>
       <c r="AM151" s="7" t="n">
         <v>503</v>
@@ -14284,10 +14280,10 @@
         <v>411</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G152" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>90</v>
@@ -14360,13 +14356,13 @@
         <v>41</v>
       </c>
       <c r="E153" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="G153" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>408</v>
@@ -14381,10 +14377,10 @@
         <v>327</v>
       </c>
       <c r="N153" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P153" s="11"/>
       <c r="Q153" s="7"/>
@@ -14444,10 +14440,10 @@
         <v>411</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="G154" s="7" t="s">
-        <v>467</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>414</v>
@@ -14498,7 +14494,7 @@
         <v>138</v>
       </c>
       <c r="AL154" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AM154" s="22" t="n">
         <v>504</v>
@@ -14521,10 +14517,10 @@
         <v>411</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G155" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="G155" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>90</v>
@@ -14600,10 +14596,10 @@
         <v>411</v>
       </c>
       <c r="F156" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G156" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>472</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>90</v>
@@ -14676,13 +14672,13 @@
         <v>41</v>
       </c>
       <c r="E157" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F157" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="G157" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G157" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>408</v>
@@ -14697,10 +14693,10 @@
         <v>327</v>
       </c>
       <c r="N157" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O157" s="11" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P157" s="11"/>
       <c r="Q157" s="7"/>
@@ -14757,16 +14753,16 @@
         <v>41</v>
       </c>
       <c r="E158" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F158" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="G158" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="H158" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="9"/>
@@ -14778,7 +14774,7 @@
       <c r="P158" s="11"/>
       <c r="Q158" s="11"/>
       <c r="R158" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
@@ -14786,7 +14782,7 @@
       <c r="V158" s="7"/>
       <c r="W158" s="7"/>
       <c r="X158" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -14802,7 +14798,7 @@
       <c r="AF158" s="7"/>
       <c r="AG158" s="7"/>
       <c r="AH158" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AI158" s="7"/>
       <c r="AJ158" s="7" t="n">
@@ -14812,7 +14808,7 @@
         <v>142</v>
       </c>
       <c r="AL158" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AM158" s="7" t="n">
         <v>311</v>
@@ -14832,16 +14828,16 @@
         <v>41</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="G159" s="7" t="s">
+      <c r="H159" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="9" t="n">
@@ -14855,21 +14851,21 @@
         <v>327</v>
       </c>
       <c r="N159" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
       <c r="Q159" s="11"/>
       <c r="R159" s="7"/>
       <c r="S159" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
       <c r="V159" s="7"/>
       <c r="W159" s="7"/>
       <c r="X159" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -14909,16 +14905,16 @@
         <v>41</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="G160" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="9" t="n">
@@ -14930,21 +14926,21 @@
         <v>327</v>
       </c>
       <c r="N160" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
       <c r="Q160" s="11"/>
       <c r="R160" s="7"/>
       <c r="S160" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
       <c r="V160" s="7"/>
       <c r="W160" s="7"/>
       <c r="X160" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -14987,10 +14983,10 @@
         <v>411</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>332</v>
@@ -15008,16 +15004,16 @@
       <c r="Q161" s="11"/>
       <c r="R161" s="7"/>
       <c r="S161" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W161" s="7"/>
       <c r="X161" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -15033,10 +15029,10 @@
       <c r="AF161" s="7"/>
       <c r="AG161" s="7"/>
       <c r="AH161" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI161" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ161" s="7" t="n">
         <v>2</v>
@@ -15066,13 +15062,13 @@
         <v>411</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="G162" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="9"/>
@@ -15086,21 +15082,21 @@
         <v>327</v>
       </c>
       <c r="N162" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
       <c r="Q162" s="11"/>
       <c r="R162" s="7"/>
       <c r="S162" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
       <c r="V162" s="7"/>
       <c r="W162" s="7"/>
       <c r="X162" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -15116,10 +15112,10 @@
       <c r="AF162" s="7"/>
       <c r="AG162" s="7"/>
       <c r="AH162" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI162" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ162" s="7" t="n">
         <v>2</v>
@@ -15149,10 +15145,10 @@
         <v>411</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>85</v>
@@ -15175,7 +15171,7 @@
       <c r="V163" s="7"/>
       <c r="W163" s="7"/>
       <c r="X163" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -15191,10 +15187,10 @@
       <c r="AF163" s="23"/>
       <c r="AG163" s="7"/>
       <c r="AH163" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI163" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ163" s="7" t="n">
         <v>2</v>
@@ -15203,7 +15199,7 @@
         <v>147</v>
       </c>
       <c r="AL163" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AM163" s="11" t="n">
         <v>312</v>
@@ -15224,10 +15220,10 @@
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>505</v>
-      </c>
-      <c r="G164" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>408</v>
@@ -15239,31 +15235,31 @@
       <c r="K164" s="9"/>
       <c r="L164" s="9"/>
       <c r="M164" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N164" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N164" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
       <c r="Q164" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R164" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S164" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>
       <c r="V164" s="7"/>
       <c r="W164" s="7"/>
       <c r="X164" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y164" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Z164" s="7"/>
       <c r="AA164" s="7"/>
@@ -15276,10 +15272,10 @@
       <c r="AF164" s="7"/>
       <c r="AG164" s="7"/>
       <c r="AH164" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AI164" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ164" s="7" t="n">
         <v>3</v>
@@ -15307,10 +15303,10 @@
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G165" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>408</v>
@@ -15322,31 +15318,31 @@
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
       <c r="M165" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N165" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N165" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
       <c r="Q165" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R165" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S165" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
       <c r="W165" s="7"/>
       <c r="X165" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y165" s="25" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="Z165" s="7"/>
       <c r="AA165" s="7"/>
@@ -15359,10 +15355,10 @@
       <c r="AF165" s="7"/>
       <c r="AG165" s="7"/>
       <c r="AH165" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI165" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ165" s="7" t="n">
         <v>3</v>
@@ -15390,10 +15386,10 @@
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>364</v>
@@ -15418,7 +15414,7 @@
       <c r="V166" s="7"/>
       <c r="W166" s="7"/>
       <c r="X166" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y166" s="7"/>
       <c r="Z166" s="7"/>
@@ -15432,10 +15428,10 @@
       <c r="AF166" s="7"/>
       <c r="AG166" s="7"/>
       <c r="AH166" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI166" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ166" s="7" t="n">
         <v>3</v>
@@ -15444,7 +15440,7 @@
         <v>151</v>
       </c>
       <c r="AL166" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM166" s="7" t="n">
         <v>147</v>
@@ -15465,10 +15461,10 @@
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>521</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>90</v>
@@ -15480,28 +15476,28 @@
       <c r="K167" s="9"/>
       <c r="L167" s="9"/>
       <c r="M167" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="N167" s="11" t="s">
         <v>507</v>
-      </c>
-      <c r="N167" s="11" t="s">
-        <v>508</v>
       </c>
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
       <c r="Q167" s="11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="R167" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S167" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T167" s="7"/>
       <c r="U167" s="7"/>
       <c r="V167" s="7"/>
       <c r="W167" s="7"/>
       <c r="X167" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y167" s="7"/>
       <c r="Z167" s="7"/>
@@ -15517,10 +15513,10 @@
       <c r="AF167" s="7"/>
       <c r="AG167" s="7"/>
       <c r="AH167" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI167" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ167" s="7" t="n">
         <v>4</v>
@@ -15548,10 +15544,10 @@
       </c>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>90</v>
@@ -15563,28 +15559,28 @@
       <c r="K168" s="9"/>
       <c r="L168" s="9"/>
       <c r="M168" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="N168" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="N168" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
       <c r="Q168" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="R168" s="7" t="s">
         <v>92</v>
       </c>
       <c r="S168" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T168" s="7"/>
       <c r="U168" s="7"/>
       <c r="V168" s="7"/>
       <c r="W168" s="7"/>
       <c r="X168" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y168" s="7"/>
       <c r="Z168" s="7"/>
@@ -15600,10 +15596,10 @@
       <c r="AF168" s="7"/>
       <c r="AG168" s="7"/>
       <c r="AH168" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI168" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ168" s="7" t="n">
         <v>4</v>
@@ -15631,13 +15627,13 @@
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G169" s="7" t="s">
+      <c r="H169" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="9" t="n">
@@ -15649,7 +15645,7 @@
         <v>327</v>
       </c>
       <c r="N169" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
@@ -15658,14 +15654,14 @@
         <v>92</v>
       </c>
       <c r="S169" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T169" s="7"/>
       <c r="U169" s="7"/>
       <c r="V169" s="7"/>
       <c r="W169" s="7"/>
       <c r="X169" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y169" s="7"/>
       <c r="Z169" s="7"/>
@@ -15679,10 +15675,10 @@
       <c r="AF169" s="7"/>
       <c r="AG169" s="7"/>
       <c r="AH169" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AI169" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ169" s="7" t="n">
         <v>3</v>
@@ -15712,13 +15708,13 @@
         <v>411</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G170" s="7" t="s">
+      <c r="H170" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="9"/>
@@ -15726,21 +15722,21 @@
       <c r="L170" s="9"/>
       <c r="M170" s="7"/>
       <c r="N170" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
       <c r="Q170" s="11"/>
       <c r="R170" s="7"/>
       <c r="S170" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T170" s="7"/>
       <c r="U170" s="7"/>
       <c r="V170" s="7"/>
       <c r="W170" s="7"/>
       <c r="X170" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y170" s="7"/>
       <c r="Z170" s="7"/>
@@ -15756,10 +15752,10 @@
       <c r="AF170" s="7"/>
       <c r="AG170" s="7"/>
       <c r="AH170" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AI170" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AJ170" s="7" t="n">
         <v>2</v>
@@ -15789,13 +15785,13 @@
         <v>411</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="H171" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="9" t="n">
@@ -15817,7 +15813,7 @@
       <c r="V171" s="7"/>
       <c r="W171" s="7"/>
       <c r="X171" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y171" s="7"/>
       <c r="Z171" s="7"/>
@@ -15841,7 +15837,7 @@
         <v>156</v>
       </c>
       <c r="AL171" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM171" s="26" t="n">
         <v>301</v>
@@ -15864,13 +15860,13 @@
         <v>411</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="G172" s="7" t="s">
+      <c r="H172" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>537</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="9" t="n">
@@ -15884,7 +15880,7 @@
         <v>327</v>
       </c>
       <c r="N172" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
@@ -15893,14 +15889,14 @@
         <v>92</v>
       </c>
       <c r="S172" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T172" s="7"/>
       <c r="U172" s="7"/>
       <c r="V172" s="7"/>
       <c r="W172" s="7"/>
       <c r="X172" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Y172" s="7"/>
       <c r="Z172" s="7"/>
@@ -15908,13 +15904,13 @@
       <c r="AB172" s="7"/>
       <c r="AC172" s="7"/>
       <c r="AD172" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AE172" s="10"/>
       <c r="AF172" s="7"/>
       <c r="AG172" s="7"/>
       <c r="AH172" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AI172" s="7"/>
       <c r="AJ172" s="7" t="n">
@@ -15945,10 +15941,10 @@
         <v>411</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>85</v>
@@ -15989,7 +15985,7 @@
         <v>158</v>
       </c>
       <c r="AL173" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM173" s="26" t="n">
         <v>400</v>
@@ -16012,13 +16008,13 @@
         <v>411</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G174" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>545</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="9" t="n">
@@ -16028,7 +16024,7 @@
       <c r="L174" s="9"/>
       <c r="M174" s="7"/>
       <c r="N174" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
@@ -16037,7 +16033,7 @@
         <v>92</v>
       </c>
       <c r="S174" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T174" s="7"/>
       <c r="U174" s="7"/>
@@ -16045,7 +16041,7 @@
       <c r="W174" s="7"/>
       <c r="X174" s="7"/>
       <c r="Y174" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Z174" s="7"/>
       <c r="AA174" s="16"/>
@@ -16089,13 +16085,13 @@
         <v>411</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="H175" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="9" t="n">
@@ -16105,7 +16101,7 @@
       <c r="L175" s="9"/>
       <c r="M175" s="7"/>
       <c r="N175" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
@@ -16114,7 +16110,7 @@
         <v>92</v>
       </c>
       <c r="S175" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T175" s="7"/>
       <c r="U175" s="7"/>
@@ -16122,7 +16118,7 @@
       <c r="W175" s="7"/>
       <c r="X175" s="7"/>
       <c r="Y175" s="7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Z175" s="7"/>
       <c r="AA175" s="16"/>
@@ -16166,13 +16162,13 @@
         <v>411</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>551</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="9" t="n">
@@ -16182,7 +16178,7 @@
       <c r="L176" s="9"/>
       <c r="M176" s="7"/>
       <c r="N176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
@@ -16191,7 +16187,7 @@
         <v>92</v>
       </c>
       <c r="S176" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T176" s="7"/>
       <c r="U176" s="7"/>
@@ -16199,7 +16195,7 @@
       <c r="W176" s="7"/>
       <c r="X176" s="7"/>
       <c r="Y176" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="Z176" s="7"/>
       <c r="AA176" s="16"/>
@@ -16243,13 +16239,13 @@
         <v>411</v>
       </c>
       <c r="F177" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="G177" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="G177" s="8" t="s">
-        <v>554</v>
-      </c>
       <c r="H177" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="9" t="n">
@@ -16259,7 +16255,7 @@
       <c r="L177" s="9"/>
       <c r="M177" s="7"/>
       <c r="N177" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
@@ -16268,7 +16264,7 @@
         <v>92</v>
       </c>
       <c r="S177" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T177" s="7"/>
       <c r="U177" s="7"/>
@@ -16276,7 +16272,7 @@
       <c r="W177" s="7"/>
       <c r="X177" s="7"/>
       <c r="Y177" s="29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="Z177" s="7"/>
       <c r="AA177" s="16"/>
@@ -16314,22 +16310,22 @@
         <v>40</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E178" s="26" t="s">
         <v>556</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="F178" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="G178" s="26" t="s">
         <v>558</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="H178" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="I178" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="J178" s="9"/>
       <c r="K178" s="9"/>
@@ -16341,7 +16337,7 @@
       <c r="Q178" s="7"/>
       <c r="R178" s="7"/>
       <c r="S178" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T178" s="7"/>
       <c r="U178" s="7"/>
@@ -16379,22 +16375,22 @@
         <v>40</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E179" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F179" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="G179" s="22" t="s">
         <v>564</v>
       </c>
-      <c r="G179" s="22" t="s">
-        <v>565</v>
-      </c>
       <c r="H179" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="I179" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="I179" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="J179" s="9"/>
       <c r="K179" s="9"/>
@@ -16406,7 +16402,7 @@
       <c r="Q179" s="7"/>
       <c r="R179" s="7"/>
       <c r="S179" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T179" s="7"/>
       <c r="U179" s="7"/>
@@ -16429,7 +16425,7 @@
         <v>163</v>
       </c>
       <c r="AL179" s="13" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM179" s="7"/>
     </row>
@@ -16444,38 +16440,38 @@
         <v>40</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E180" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F180" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="F180" s="26" t="s">
+      <c r="G180" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="H180" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G180" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="H180" s="7" t="s">
+      <c r="I180" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I180" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J180" s="9"/>
       <c r="K180" s="9"/>
       <c r="L180" s="9"/>
       <c r="M180" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="N180" s="31" t="s">
         <v>571</v>
-      </c>
-      <c r="N180" s="31" t="s">
-        <v>572</v>
       </c>
       <c r="O180" s="32"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
       <c r="S180" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T180" s="7"/>
       <c r="U180" s="7"/>
@@ -16513,38 +16509,38 @@
         <v>40</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E181" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F181" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F181" s="33" t="s">
+      <c r="G181" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H181" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G181" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H181" s="7" t="s">
+      <c r="I181" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I181" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J181" s="9"/>
       <c r="K181" s="9"/>
       <c r="L181" s="9"/>
       <c r="M181" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="O181" s="32"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
       <c r="S181" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T181" s="7"/>
       <c r="U181" s="7"/>
@@ -16582,38 +16578,38 @@
         <v>40</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E182" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F182" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F182" s="33" t="s">
+      <c r="G182" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H182" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G182" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H182" s="7" t="s">
+      <c r="I182" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I182" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J182" s="9"/>
       <c r="K182" s="9"/>
       <c r="L182" s="9"/>
       <c r="M182" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="O182" s="32"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
       <c r="S182" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T182" s="7"/>
       <c r="U182" s="7"/>
@@ -16651,38 +16647,38 @@
         <v>40</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E183" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="F183" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="G183" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="H183" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="G183" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="H183" s="7" t="s">
+      <c r="I183" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I183" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J183" s="9"/>
       <c r="K183" s="9"/>
       <c r="L183" s="9"/>
       <c r="M183" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N183" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O183" s="32"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
       <c r="S183" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T183" s="7"/>
       <c r="U183" s="7"/>
@@ -16720,22 +16716,22 @@
         <v>40</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E184" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="F184" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="F184" s="26" t="s">
+      <c r="G184" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="G184" s="26" t="s">
+      <c r="H184" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="I184" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="I184" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="J184" s="9"/>
       <c r="K184" s="9"/>
@@ -16747,7 +16743,7 @@
       <c r="Q184" s="7"/>
       <c r="R184" s="7"/>
       <c r="S184" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T184" s="7"/>
       <c r="U184" s="7"/>
@@ -16785,22 +16781,22 @@
         <v>40</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E185" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="F185" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="F185" s="26" t="s">
+      <c r="G185" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="H185" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="H185" s="7" t="s">
-        <v>584</v>
-      </c>
       <c r="I185" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J185" s="9"/>
       <c r="K185" s="9"/>
@@ -16812,7 +16808,7 @@
       <c r="Q185" s="7"/>
       <c r="R185" s="7"/>
       <c r="S185" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T185" s="7"/>
       <c r="U185" s="7"/>
@@ -16850,43 +16846,43 @@
         <v>40</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E186" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="F186" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="F186" s="26" t="s">
+      <c r="G186" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="H186" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="H186" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="I186" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="L186" s="9"/>
       <c r="M186" s="7"/>
       <c r="N186" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O186" s="7"/>
       <c r="P186" s="7"/>
       <c r="Q186" s="7"/>
       <c r="R186" s="7"/>
       <c r="S186" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T186" s="7"/>
       <c r="U186" s="7"/>
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
       <c r="X186" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Y186" s="7"/>
       <c r="Z186" s="7"/>
@@ -16917,43 +16913,43 @@
         <v>40</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E187" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="F187" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="F187" s="26" t="s">
+      <c r="G187" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="H187" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="H187" s="7" t="s">
-        <v>594</v>
-      </c>
       <c r="I187" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J187" s="9"/>
       <c r="K187" s="9"/>
       <c r="L187" s="9"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
       <c r="R187" s="7"/>
       <c r="S187" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="T187" s="7"/>
       <c r="U187" s="7"/>
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
       <c r="X187" s="35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Y187" s="7"/>
       <c r="Z187" s="7"/>
@@ -16984,38 +16980,38 @@
         <v>40</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E188" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F188" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F188" s="26" t="s">
+      <c r="G188" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G188" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H188" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I188" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I188" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J188" s="9"/>
       <c r="K188" s="9"/>
       <c r="L188" s="9"/>
       <c r="M188" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="N188" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="N188" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="O188" s="7"/>
       <c r="P188" s="7"/>
       <c r="Q188" s="7"/>
       <c r="R188" s="7"/>
       <c r="S188" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T188" s="7"/>
       <c r="U188" s="7"/>
@@ -17038,7 +17034,7 @@
         <v>172</v>
       </c>
       <c r="AL188" s="13" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM188" s="7"/>
     </row>
@@ -17053,38 +17049,38 @@
         <v>40</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E189" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="G189" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G189" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H189" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I189" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I189" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J189" s="9"/>
       <c r="K189" s="9"/>
       <c r="L189" s="9"/>
       <c r="M189" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N189" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O189" s="7"/>
       <c r="P189" s="7"/>
       <c r="Q189" s="7"/>
       <c r="R189" s="7"/>
       <c r="S189" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T189" s="7"/>
       <c r="U189" s="7"/>
@@ -17122,38 +17118,38 @@
         <v>40</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E190" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="F190" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="G190" s="26" t="s">
         <v>598</v>
       </c>
-      <c r="G190" s="26" t="s">
-        <v>599</v>
-      </c>
       <c r="H190" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I190" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="I190" s="7" t="s">
-        <v>570</v>
       </c>
       <c r="J190" s="9"/>
       <c r="K190" s="9"/>
       <c r="L190" s="9"/>
       <c r="M190" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N190" s="36" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O190" s="7"/>
       <c r="P190" s="7"/>
       <c r="Q190" s="7"/>
       <c r="R190" s="7"/>
       <c r="S190" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T190" s="7"/>
       <c r="U190" s="7"/>
@@ -17176,7 +17172,7 @@
         <v>175</v>
       </c>
       <c r="AL190" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AM190" s="7"/>
     </row>
@@ -17191,20 +17187,20 @@
         <v>40</v>
       </c>
       <c r="D191" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E191" s="37"/>
       <c r="F191" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="G191" s="37" t="s">
         <v>606</v>
       </c>
-      <c r="G191" s="37" t="s">
-        <v>607</v>
-      </c>
       <c r="H191" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J191" s="38"/>
       <c r="K191" s="38"/>
@@ -17216,7 +17212,7 @@
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
       <c r="S191" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -14,6 +14,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2453,44 +2454,44 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.2712550607288"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.8056680161943"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.3441295546559"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="19.9230769230769"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="63.5222672064777"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.0161943319838"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="124.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.9514170040486"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.7651821862348"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="94.3724696356275"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.1214574898785"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1075,10 +1076,10 @@
     <t xml:space="preserve">Добрый - Деревенские яблочки - 1л</t>
   </si>
   <si>
-    <t xml:space="preserve">NEW SKU 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новый вкус 6</t>
+    <t xml:space="preserve">Pulpy - Guava-Passion Fruit - 0.45L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Палпи - Гуава-Маракуйя - 0.45л</t>
   </si>
   <si>
     <t xml:space="preserve">Dobriy - Grape-Apple - 1L</t>
@@ -2193,7 +2194,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2263,6 +2264,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2343,10 +2352,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2446,52 +2451,52 @@
   <dimension ref="A1:AM191"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
+      <selection pane="bottomLeft" activeCell="F104" activeCellId="0" sqref="F104:AM104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="67.8056680161943"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="59.8785425101215"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="63.5222672064777"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.0566801619433"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="86.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="125.222672064777"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.4858299595142"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.1214574898785"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10542,26 +10547,26 @@
       <c r="E104" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G104" s="7" t="s">
+      <c r="G104" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="9" t="n">
+      <c r="I104" s="6"/>
+      <c r="J104" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="7" t="s">
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="N104" s="11" t="n">
-        <v>1111111</v>
+      <c r="N104" s="15" t="n">
+        <v>4650075423257</v>
       </c>
       <c r="O104" s="11"/>
       <c r="P104" s="11"/>
@@ -10623,25 +10628,25 @@
       <c r="E105" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="H105" s="18" t="s">
+      <c r="H105" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="19" t="n">
+      <c r="I105" s="20"/>
+      <c r="J105" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="18" t="s">
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="N105" s="20" t="n">
+      <c r="N105" s="22" t="n">
         <v>4650075422809</v>
       </c>
       <c r="O105" s="11"/>
@@ -10811,7 +10816,7 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="21"/>
+      <c r="V107" s="23"/>
       <c r="W107" s="7"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
@@ -10894,7 +10899,7 @@
       </c>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="21"/>
+      <c r="V108" s="23"/>
       <c r="W108" s="7"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
@@ -11046,7 +11051,7 @@
       </c>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="21"/>
+      <c r="V110" s="23"/>
       <c r="W110" s="7"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
@@ -11119,7 +11124,7 @@
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="21"/>
+      <c r="V111" s="23"/>
       <c r="W111" s="7"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
@@ -11204,7 +11209,7 @@
       </c>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="21"/>
+      <c r="V112" s="23"/>
       <c r="W112" s="7"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
@@ -11281,7 +11286,7 @@
       </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="21"/>
+      <c r="V113" s="23"/>
       <c r="W113" s="7"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
@@ -11357,7 +11362,7 @@
         <v>93</v>
       </c>
       <c r="T114" s="7"/>
-      <c r="U114" s="21"/>
+      <c r="U114" s="23"/>
       <c r="V114" s="7"/>
       <c r="W114" s="7"/>
       <c r="X114" s="7"/>
@@ -11435,7 +11440,7 @@
       </c>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="21"/>
+      <c r="V115" s="23"/>
       <c r="W115" s="7"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
@@ -11506,7 +11511,7 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="21"/>
+      <c r="V116" s="23"/>
       <c r="W116" s="7"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
@@ -11589,7 +11594,7 @@
       </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="21"/>
+      <c r="V117" s="23"/>
       <c r="W117" s="7"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
@@ -11735,7 +11740,7 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="21"/>
+      <c r="V119" s="23"/>
       <c r="W119" s="7"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
@@ -11812,7 +11817,7 @@
       </c>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="21"/>
+      <c r="V120" s="23"/>
       <c r="W120" s="7"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
@@ -11889,7 +11894,7 @@
       </c>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="21"/>
+      <c r="V121" s="23"/>
       <c r="W121" s="7"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
@@ -11962,7 +11967,7 @@
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="21"/>
+      <c r="V122" s="23"/>
       <c r="W122" s="7"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
@@ -12045,7 +12050,7 @@
       </c>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="21"/>
+      <c r="V123" s="23"/>
       <c r="W123" s="7"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
@@ -12196,7 +12201,7 @@
         <v>93</v>
       </c>
       <c r="T125" s="7"/>
-      <c r="U125" s="21"/>
+      <c r="U125" s="23"/>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
@@ -12917,7 +12922,7 @@
         <v>118</v>
       </c>
       <c r="AL134" s="7"/>
-      <c r="AM134" s="22" t="n">
+      <c r="AM134" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -12996,7 +13001,7 @@
         <v>119</v>
       </c>
       <c r="AL135" s="7"/>
-      <c r="AM135" s="22" t="n">
+      <c r="AM135" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13075,7 +13080,7 @@
         <v>120</v>
       </c>
       <c r="AL136" s="7"/>
-      <c r="AM136" s="22" t="n">
+      <c r="AM136" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13154,7 +13159,7 @@
         <v>121</v>
       </c>
       <c r="AL137" s="7"/>
-      <c r="AM137" s="22" t="n">
+      <c r="AM137" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13233,7 +13238,7 @@
         <v>122</v>
       </c>
       <c r="AL138" s="7"/>
-      <c r="AM138" s="22" t="n">
+      <c r="AM138" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13312,7 +13317,7 @@
         <v>123</v>
       </c>
       <c r="AL139" s="7"/>
-      <c r="AM139" s="22" t="n">
+      <c r="AM139" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13391,7 +13396,7 @@
         <v>124</v>
       </c>
       <c r="AL140" s="7"/>
-      <c r="AM140" s="22" t="n">
+      <c r="AM140" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13470,7 +13475,7 @@
         <v>125</v>
       </c>
       <c r="AL141" s="7"/>
-      <c r="AM141" s="22" t="n">
+      <c r="AM141" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13549,7 +13554,7 @@
         <v>126</v>
       </c>
       <c r="AL142" s="7"/>
-      <c r="AM142" s="22" t="n">
+      <c r="AM142" s="24" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13707,7 +13712,7 @@
       <c r="AL144" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="AM144" s="22" t="n">
+      <c r="AM144" s="24" t="n">
         <v>502</v>
       </c>
     </row>
@@ -13786,7 +13791,7 @@
         <v>129</v>
       </c>
       <c r="AL145" s="7"/>
-      <c r="AM145" s="22" t="n">
+      <c r="AM145" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -13865,7 +13870,7 @@
         <v>130</v>
       </c>
       <c r="AL146" s="7"/>
-      <c r="AM146" s="22" t="n">
+      <c r="AM146" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -13944,7 +13949,7 @@
         <v>131</v>
       </c>
       <c r="AL147" s="7"/>
-      <c r="AM147" s="22" t="n">
+      <c r="AM147" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14023,7 +14028,7 @@
         <v>132</v>
       </c>
       <c r="AL148" s="7"/>
-      <c r="AM148" s="22" t="n">
+      <c r="AM148" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14102,7 +14107,7 @@
         <v>133</v>
       </c>
       <c r="AL149" s="7"/>
-      <c r="AM149" s="22" t="n">
+      <c r="AM149" s="24" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14497,7 +14502,7 @@
       <c r="AL154" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="AM154" s="22" t="n">
+      <c r="AM154" s="24" t="n">
         <v>504</v>
       </c>
     </row>
@@ -14576,7 +14581,7 @@
         <v>139</v>
       </c>
       <c r="AL155" s="7"/>
-      <c r="AM155" s="22" t="n">
+      <c r="AM155" s="24" t="n">
         <v>138</v>
       </c>
     </row>
@@ -14655,7 +14660,7 @@
         <v>140</v>
       </c>
       <c r="AL156" s="7"/>
-      <c r="AM156" s="22" t="n">
+      <c r="AM156" s="24" t="n">
         <v>138</v>
       </c>
     </row>
@@ -15185,7 +15190,7 @@
       <c r="AE163" s="10" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF163" s="23"/>
+      <c r="AF163" s="25"/>
       <c r="AG163" s="7"/>
       <c r="AH163" s="7" t="s">
         <v>497</v>
@@ -15259,7 +15264,7 @@
       <c r="X164" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="Y164" s="24" t="s">
+      <c r="Y164" s="26" t="s">
         <v>509</v>
       </c>
       <c r="Z164" s="7"/>
@@ -15342,7 +15347,7 @@
       <c r="X165" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="Y165" s="25" t="s">
+      <c r="Y165" s="27" t="s">
         <v>513</v>
       </c>
       <c r="Z165" s="7"/>
@@ -15765,7 +15770,7 @@
         <v>155</v>
       </c>
       <c r="AL170" s="7"/>
-      <c r="AM170" s="26" t="n">
+      <c r="AM170" s="28" t="n">
         <v>312</v>
       </c>
     </row>
@@ -15782,7 +15787,7 @@
       <c r="D171" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="28" t="s">
         <v>411</v>
       </c>
       <c r="F171" s="7" t="s">
@@ -15840,7 +15845,7 @@
       <c r="AL171" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="AM171" s="26" t="n">
+      <c r="AM171" s="28" t="n">
         <v>301</v>
       </c>
     </row>
@@ -15857,7 +15862,7 @@
       <c r="D172" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E172" s="26" t="s">
+      <c r="E172" s="28" t="s">
         <v>411</v>
       </c>
       <c r="F172" s="7" t="s">
@@ -15965,7 +15970,7 @@
       <c r="U173" s="7"/>
       <c r="V173" s="7"/>
       <c r="W173" s="7"/>
-      <c r="X173" s="27"/>
+      <c r="X173" s="29"/>
       <c r="Y173" s="7"/>
       <c r="Z173" s="7"/>
       <c r="AA173" s="16"/>
@@ -15988,7 +15993,7 @@
       <c r="AL173" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="AM173" s="26" t="n">
+      <c r="AM173" s="28" t="n">
         <v>400</v>
       </c>
     </row>
@@ -16239,7 +16244,7 @@
       <c r="E177" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F177" s="28" t="s">
+      <c r="F177" s="30" t="s">
         <v>552</v>
       </c>
       <c r="G177" s="8" t="s">
@@ -16255,7 +16260,7 @@
       <c r="K177" s="9"/>
       <c r="L177" s="9"/>
       <c r="M177" s="7"/>
-      <c r="N177" s="29" t="s">
+      <c r="N177" s="31" t="s">
         <v>554</v>
       </c>
       <c r="O177" s="11"/>
@@ -16272,7 +16277,7 @@
       <c r="V177" s="7"/>
       <c r="W177" s="7"/>
       <c r="X177" s="7"/>
-      <c r="Y177" s="29" t="s">
+      <c r="Y177" s="31" t="s">
         <v>554</v>
       </c>
       <c r="Z177" s="7"/>
@@ -16313,13 +16318,13 @@
       <c r="D178" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E178" s="26" t="s">
+      <c r="E178" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="F178" s="26" t="s">
+      <c r="F178" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="G178" s="26" t="s">
+      <c r="G178" s="28" t="s">
         <v>558</v>
       </c>
       <c r="H178" s="7" t="s">
@@ -16384,7 +16389,7 @@
       <c r="F179" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="G179" s="24" t="s">
         <v>564</v>
       </c>
       <c r="H179" s="7" t="s">
@@ -16397,7 +16402,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="9"/>
       <c r="M179" s="7"/>
-      <c r="N179" s="30"/>
+      <c r="N179" s="32"/>
       <c r="O179" s="7"/>
       <c r="P179" s="7"/>
       <c r="Q179" s="7"/>
@@ -16443,13 +16448,13 @@
       <c r="D180" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E180" s="26" t="s">
+      <c r="E180" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F180" s="26" t="s">
+      <c r="F180" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="G180" s="26" t="s">
+      <c r="G180" s="28" t="s">
         <v>539</v>
       </c>
       <c r="H180" s="7" t="s">
@@ -16464,10 +16469,10 @@
       <c r="M180" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N180" s="31" t="s">
+      <c r="N180" s="33" t="s">
         <v>571</v>
       </c>
-      <c r="O180" s="32"/>
+      <c r="O180" s="34"/>
       <c r="P180" s="7"/>
       <c r="Q180" s="7"/>
       <c r="R180" s="7"/>
@@ -16512,13 +16517,13 @@
       <c r="D181" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F181" s="33" t="s">
+      <c r="F181" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G181" s="33" t="s">
+      <c r="G181" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H181" s="7" t="s">
@@ -16533,10 +16538,10 @@
       <c r="M181" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N181" s="31" t="s">
+      <c r="N181" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="O181" s="32"/>
+      <c r="O181" s="34"/>
       <c r="P181" s="7"/>
       <c r="Q181" s="7"/>
       <c r="R181" s="7"/>
@@ -16581,13 +16586,13 @@
       <c r="D182" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E182" s="26" t="s">
+      <c r="E182" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F182" s="33" t="s">
+      <c r="F182" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G182" s="33" t="s">
+      <c r="G182" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H182" s="7" t="s">
@@ -16602,10 +16607,10 @@
       <c r="M182" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N182" s="31" t="s">
+      <c r="N182" s="33" t="s">
         <v>573</v>
       </c>
-      <c r="O182" s="32"/>
+      <c r="O182" s="34"/>
       <c r="P182" s="7"/>
       <c r="Q182" s="7"/>
       <c r="R182" s="7"/>
@@ -16650,13 +16655,13 @@
       <c r="D183" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E183" s="26" t="s">
+      <c r="E183" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="F183" s="33" t="s">
+      <c r="F183" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="G183" s="33" t="s">
+      <c r="G183" s="35" t="s">
         <v>539</v>
       </c>
       <c r="H183" s="7" t="s">
@@ -16671,10 +16676,10 @@
       <c r="M183" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="N183" s="31" t="s">
+      <c r="N183" s="33" t="s">
         <v>574</v>
       </c>
-      <c r="O183" s="32"/>
+      <c r="O183" s="34"/>
       <c r="P183" s="7"/>
       <c r="Q183" s="7"/>
       <c r="R183" s="7"/>
@@ -16719,13 +16724,13 @@
       <c r="D184" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E184" s="26" t="s">
+      <c r="E184" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="F184" s="26" t="s">
+      <c r="F184" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="G184" s="26" t="s">
+      <c r="G184" s="28" t="s">
         <v>577</v>
       </c>
       <c r="H184" s="7" t="s">
@@ -16738,7 +16743,7 @@
       <c r="K184" s="9"/>
       <c r="L184" s="9"/>
       <c r="M184" s="7"/>
-      <c r="N184" s="34"/>
+      <c r="N184" s="36"/>
       <c r="O184" s="7"/>
       <c r="P184" s="7"/>
       <c r="Q184" s="7"/>
@@ -16784,13 +16789,13 @@
       <c r="D185" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E185" s="26" t="s">
+      <c r="E185" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="F185" s="26" t="s">
+      <c r="F185" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="G185" s="26" t="s">
+      <c r="G185" s="28" t="s">
         <v>582</v>
       </c>
       <c r="H185" s="7" t="s">
@@ -16849,13 +16854,13 @@
       <c r="D186" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E186" s="26" t="s">
+      <c r="E186" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="F186" s="26" t="s">
+      <c r="F186" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="G186" s="26" t="s">
+      <c r="G186" s="28" t="s">
         <v>586</v>
       </c>
       <c r="H186" s="7" t="s">
@@ -16882,7 +16887,7 @@
       <c r="U186" s="7"/>
       <c r="V186" s="7"/>
       <c r="W186" s="7"/>
-      <c r="X186" s="35" t="s">
+      <c r="X186" s="37" t="s">
         <v>481</v>
       </c>
       <c r="Y186" s="7"/>
@@ -16916,13 +16921,13 @@
       <c r="D187" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E187" s="26" t="s">
+      <c r="E187" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="F187" s="26" t="s">
+      <c r="F187" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="G187" s="26" t="s">
+      <c r="G187" s="28" t="s">
         <v>592</v>
       </c>
       <c r="H187" s="7" t="s">
@@ -16949,7 +16954,7 @@
       <c r="U187" s="7"/>
       <c r="V187" s="7"/>
       <c r="W187" s="7"/>
-      <c r="X187" s="35" t="s">
+      <c r="X187" s="37" t="s">
         <v>595</v>
       </c>
       <c r="Y187" s="7"/>
@@ -16983,13 +16988,13 @@
       <c r="D188" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E188" s="26" t="s">
+      <c r="E188" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F188" s="26" t="s">
+      <c r="F188" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G188" s="26" t="s">
+      <c r="G188" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H188" s="7" t="s">
@@ -17052,13 +17057,13 @@
       <c r="D189" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E189" s="26" t="s">
+      <c r="E189" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F189" s="26" t="s">
+      <c r="F189" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G189" s="26" t="s">
+      <c r="G189" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H189" s="7" t="s">
@@ -17073,7 +17078,7 @@
       <c r="M189" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N189" s="36" t="s">
+      <c r="N189" s="38" t="s">
         <v>602</v>
       </c>
       <c r="O189" s="7"/>
@@ -17121,13 +17126,13 @@
       <c r="D190" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E190" s="26" t="s">
+      <c r="E190" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F190" s="26" t="s">
+      <c r="F190" s="28" t="s">
         <v>597</v>
       </c>
-      <c r="G190" s="26" t="s">
+      <c r="G190" s="28" t="s">
         <v>598</v>
       </c>
       <c r="H190" s="7" t="s">
@@ -17142,7 +17147,7 @@
       <c r="M190" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="N190" s="36" t="s">
+      <c r="N190" s="38" t="s">
         <v>603</v>
       </c>
       <c r="O190" s="7"/>
@@ -17190,11 +17195,11 @@
       <c r="D191" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="E191" s="37"/>
-      <c r="F191" s="37" t="s">
+      <c r="E191" s="39"/>
+      <c r="F191" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="G191" s="37" t="s">
+      <c r="G191" s="39" t="s">
         <v>606</v>
       </c>
       <c r="H191" s="6" t="s">
@@ -17203,10 +17208,10 @@
       <c r="I191" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="J191" s="38"/>
-      <c r="K191" s="38"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
       <c r="L191" s="6"/>
-      <c r="M191" s="39"/>
+      <c r="M191" s="40"/>
       <c r="N191" s="6"/>
       <c r="O191" s="6"/>
       <c r="P191" s="6"/>
@@ -17224,12 +17229,12 @@
       <c r="Z191" s="6"/>
       <c r="AA191" s="6"/>
       <c r="AB191" s="6"/>
-      <c r="AC191" s="40"/>
+      <c r="AC191" s="41"/>
       <c r="AD191" s="6"/>
       <c r="AE191" s="6"/>
       <c r="AF191" s="6"/>
       <c r="AG191" s="6"/>
-      <c r="AH191" s="41"/>
+      <c r="AH191" s="42"/>
       <c r="AI191" s="6"/>
       <c r="AJ191" s="6"/>
       <c r="AK191" s="6" t="n">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$191</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1323,7 +1324,7 @@
     <t xml:space="preserve">NCB Дисплей: Фейсинги</t>
   </si>
   <si>
-    <t xml:space="preserve">ice tea, water</t>
+    <t xml:space="preserve">ice tea, Water</t>
   </si>
   <si>
     <t xml:space="preserve">NCB Display: Zone</t>
@@ -2451,52 +2452,51 @@
   <dimension ref="A1:AM191"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F104" activeCellId="0" sqref="F104:AM104"/>
+      <selection pane="bottomLeft" activeCell="N128" activeCellId="0" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.417004048583"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.0566801619433"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.9514170040486"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="64.7004048582996"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="19.6032388663968"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="87.5141700404858"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="126.291497975708"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.914979757085"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="88.3724696356275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="127.46963562753"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="56.3441295546559"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="33" min="32" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="96.834008097166"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="0" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -17,6 +17,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1119,10 +1121,10 @@
     <t xml:space="preserve">Checked only for scene that passed SSD Display 1st</t>
   </si>
   <si>
-    <t xml:space="preserve">96
-97
-98
-99
+    <t xml:space="preserve">834
+835
+836
+837
 </t>
   </si>
   <si>
@@ -1921,7 +1923,7 @@
     <t xml:space="preserve">SSD snack</t>
   </si>
   <si>
-    <t xml:space="preserve">Impulse Activations: Dobry/Coke  in Bakery</t>
+    <t xml:space="preserve">Impulse Activations: Dobry/Coke in Bakery</t>
   </si>
   <si>
     <t xml:space="preserve">Impulse Активации: Добрый/Кола в выпечке</t>
@@ -2118,7 +2120,7 @@
     <numFmt numFmtId="171" formatCode="D\-MMM"/>
     <numFmt numFmtId="172" formatCode="0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2156,6 +2158,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2270,7 +2278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2403,6 +2411,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2419,7 +2431,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2439,7 +2451,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2459,7 +2471,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="8" fillId="4" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2575,51 +2587,51 @@
   <dimension ref="A1:AM202"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F188" activeCellId="0" sqref="F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="64.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="70.1619433198381"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.2348178137652"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="61.914979757085"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="65.8785425101215"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="62.9878542510121"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.0566801619433"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="90.085020242915"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="129.720647773279"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="57.0931174089069"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.1012145748988"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="91.6923076923077"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="131.971659919028"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="58.165991902834"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="33" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="98.5506072874494"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="53" min="40" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="55" style="0" width="8.57085020242915"/>
@@ -11242,7 +11254,7 @@
       <c r="AK108" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="AL108" s="12" t="s">
+      <c r="AL108" s="33" t="s">
         <v>329</v>
       </c>
       <c r="AM108" s="6" t="n">
@@ -11322,7 +11334,7 @@
         <v>834</v>
       </c>
       <c r="AL109" s="14"/>
-      <c r="AM109" s="33" t="n">
+      <c r="AM109" s="34" t="n">
         <v>95</v>
       </c>
     </row>
@@ -11399,7 +11411,7 @@
         <v>835</v>
       </c>
       <c r="AL110" s="14"/>
-      <c r="AM110" s="33" t="n">
+      <c r="AM110" s="34" t="n">
         <v>95</v>
       </c>
     </row>
@@ -11434,7 +11446,7 @@
       </c>
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
-      <c r="M111" s="34" t="s">
+      <c r="M111" s="35" t="s">
         <v>339</v>
       </c>
       <c r="N111" s="16" t="n">
@@ -11476,7 +11488,7 @@
         <v>836</v>
       </c>
       <c r="AL111" s="14"/>
-      <c r="AM111" s="33" t="n">
+      <c r="AM111" s="34" t="n">
         <v>95</v>
       </c>
     </row>
@@ -11553,7 +11565,7 @@
         <v>837</v>
       </c>
       <c r="AL112" s="14"/>
-      <c r="AM112" s="33" t="n">
+      <c r="AM112" s="34" t="n">
         <v>95</v>
       </c>
     </row>
@@ -12439,7 +12451,7 @@
       <c r="AD124" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE124" s="35" t="n">
+      <c r="AE124" s="36" t="n">
         <v>0.02</v>
       </c>
       <c r="AF124" s="14"/>
@@ -12452,7 +12464,7 @@
       <c r="AK124" s="14" t="n">
         <v>500</v>
       </c>
-      <c r="AL124" s="36" t="s">
+      <c r="AL124" s="37" t="s">
         <v>380</v>
       </c>
       <c r="AM124" s="14" t="n">
@@ -12522,7 +12534,7 @@
       <c r="AD125" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE125" s="35"/>
+      <c r="AE125" s="36"/>
       <c r="AF125" s="14"/>
       <c r="AG125" s="14"/>
       <c r="AH125" s="14"/>
@@ -12597,7 +12609,7 @@
       <c r="AD126" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE126" s="35"/>
+      <c r="AE126" s="36"/>
       <c r="AF126" s="14"/>
       <c r="AG126" s="14"/>
       <c r="AH126" s="14"/>
@@ -12668,7 +12680,7 @@
       <c r="AD127" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE127" s="35"/>
+      <c r="AE127" s="36"/>
       <c r="AF127" s="14"/>
       <c r="AG127" s="14"/>
       <c r="AH127" s="14"/>
@@ -12679,7 +12691,7 @@
       <c r="AK127" s="14" t="n">
         <v>628</v>
       </c>
-      <c r="AL127" s="36" t="s">
+      <c r="AL127" s="37" t="s">
         <v>389</v>
       </c>
       <c r="AM127" s="14" t="n">
@@ -12745,7 +12757,7 @@
       <c r="AD128" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE128" s="35"/>
+      <c r="AE128" s="36"/>
       <c r="AF128" s="14"/>
       <c r="AG128" s="14"/>
       <c r="AH128" s="14"/>
@@ -12790,7 +12802,7 @@
       <c r="J129" s="15"/>
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
-      <c r="M129" s="37" t="s">
+      <c r="M129" s="38" t="s">
         <v>189</v>
       </c>
       <c r="N129" s="16" t="s">
@@ -12820,7 +12832,7 @@
       <c r="AD129" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE129" s="35"/>
+      <c r="AE129" s="36"/>
       <c r="AF129" s="14"/>
       <c r="AG129" s="14"/>
       <c r="AH129" s="14"/>
@@ -12893,7 +12905,7 @@
       <c r="AD130" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE130" s="35"/>
+      <c r="AE130" s="36"/>
       <c r="AF130" s="14"/>
       <c r="AG130" s="14"/>
       <c r="AH130" s="14"/>
@@ -12966,7 +12978,7 @@
       <c r="AD131" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE131" s="35"/>
+      <c r="AE131" s="36"/>
       <c r="AF131" s="14"/>
       <c r="AG131" s="14"/>
       <c r="AH131" s="14"/>
@@ -13039,7 +13051,7 @@
       <c r="AD132" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE132" s="35"/>
+      <c r="AE132" s="36"/>
       <c r="AF132" s="14"/>
       <c r="AG132" s="14"/>
       <c r="AH132" s="14"/>
@@ -13412,7 +13424,7 @@
         <v>118</v>
       </c>
       <c r="AL137" s="6"/>
-      <c r="AM137" s="38" t="n">
+      <c r="AM137" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13491,7 +13503,7 @@
         <v>119</v>
       </c>
       <c r="AL138" s="6"/>
-      <c r="AM138" s="38" t="n">
+      <c r="AM138" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13570,7 +13582,7 @@
         <v>120</v>
       </c>
       <c r="AL139" s="6"/>
-      <c r="AM139" s="38" t="n">
+      <c r="AM139" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13649,7 +13661,7 @@
         <v>121</v>
       </c>
       <c r="AL140" s="6"/>
-      <c r="AM140" s="38" t="n">
+      <c r="AM140" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13728,7 +13740,7 @@
         <v>122</v>
       </c>
       <c r="AL141" s="6"/>
-      <c r="AM141" s="38" t="n">
+      <c r="AM141" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13807,7 +13819,7 @@
         <v>123</v>
       </c>
       <c r="AL142" s="6"/>
-      <c r="AM142" s="38" t="n">
+      <c r="AM142" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13886,7 +13898,7 @@
         <v>124</v>
       </c>
       <c r="AL143" s="6"/>
-      <c r="AM143" s="38" t="n">
+      <c r="AM143" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -13965,7 +13977,7 @@
         <v>125</v>
       </c>
       <c r="AL144" s="6"/>
-      <c r="AM144" s="38" t="n">
+      <c r="AM144" s="39" t="n">
         <v>117</v>
       </c>
     </row>
@@ -14032,7 +14044,7 @@
       <c r="AD145" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE145" s="35"/>
+      <c r="AE145" s="36"/>
       <c r="AF145" s="14"/>
       <c r="AG145" s="14"/>
       <c r="AH145" s="14"/>
@@ -14044,7 +14056,7 @@
         <v>825</v>
       </c>
       <c r="AL145" s="14"/>
-      <c r="AM145" s="34" t="n">
+      <c r="AM145" s="35" t="n">
         <v>117</v>
       </c>
     </row>
@@ -14265,7 +14277,7 @@
       <c r="AL148" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="AM148" s="38" t="n">
+      <c r="AM148" s="39" t="n">
         <v>502</v>
       </c>
     </row>
@@ -14344,7 +14356,7 @@
         <v>129</v>
       </c>
       <c r="AL149" s="6"/>
-      <c r="AM149" s="38" t="n">
+      <c r="AM149" s="39" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14423,7 +14435,7 @@
         <v>130</v>
       </c>
       <c r="AL150" s="6"/>
-      <c r="AM150" s="38" t="n">
+      <c r="AM150" s="39" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14502,7 +14514,7 @@
         <v>131</v>
       </c>
       <c r="AL151" s="6"/>
-      <c r="AM151" s="38" t="n">
+      <c r="AM151" s="39" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14581,7 +14593,7 @@
         <v>132</v>
       </c>
       <c r="AL152" s="6"/>
-      <c r="AM152" s="38" t="n">
+      <c r="AM152" s="39" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14660,7 +14672,7 @@
         <v>133</v>
       </c>
       <c r="AL153" s="6"/>
-      <c r="AM153" s="38" t="n">
+      <c r="AM153" s="39" t="n">
         <v>128</v>
       </c>
     </row>
@@ -14753,7 +14765,7 @@
         <v>413</v>
       </c>
       <c r="I155" s="6"/>
-      <c r="J155" s="39" t="n">
+      <c r="J155" s="40" t="n">
         <v>0.1</v>
       </c>
       <c r="K155" s="8"/>
@@ -15053,7 +15065,7 @@
         <v>413</v>
       </c>
       <c r="I159" s="6"/>
-      <c r="J159" s="39" t="n">
+      <c r="J159" s="40" t="n">
         <v>0.35</v>
       </c>
       <c r="K159" s="8"/>
@@ -15181,7 +15193,7 @@
       <c r="AL160" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="AM160" s="38" t="n">
+      <c r="AM160" s="39" t="n">
         <v>504</v>
       </c>
     </row>
@@ -15248,7 +15260,7 @@
       <c r="AD161" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE161" s="35"/>
+      <c r="AE161" s="36"/>
       <c r="AF161" s="14"/>
       <c r="AG161" s="14"/>
       <c r="AH161" s="14"/>
@@ -15260,7 +15272,7 @@
         <v>939</v>
       </c>
       <c r="AL161" s="14"/>
-      <c r="AM161" s="34" t="n">
+      <c r="AM161" s="35" t="n">
         <v>138</v>
       </c>
     </row>
@@ -15280,16 +15292,16 @@
       <c r="E162" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="F162" s="40" t="s">
+      <c r="F162" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="G162" s="40" t="s">
+      <c r="G162" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="H162" s="40" t="s">
+      <c r="H162" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I162" s="40"/>
+      <c r="I162" s="41"/>
       <c r="J162" s="15" t="n">
         <v>1</v>
       </c>
@@ -15327,7 +15339,7 @@
       <c r="AD162" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE162" s="35"/>
+      <c r="AE162" s="36"/>
       <c r="AF162" s="14"/>
       <c r="AG162" s="14"/>
       <c r="AH162" s="14"/>
@@ -15339,7 +15351,7 @@
         <v>940</v>
       </c>
       <c r="AL162" s="14"/>
-      <c r="AM162" s="34" t="n">
+      <c r="AM162" s="35" t="n">
         <v>138</v>
       </c>
     </row>
@@ -15432,7 +15444,7 @@
         <v>413</v>
       </c>
       <c r="I164" s="6"/>
-      <c r="J164" s="39" t="n">
+      <c r="J164" s="40" t="n">
         <v>0.25</v>
       </c>
       <c r="K164" s="8"/>
@@ -16119,7 +16131,7 @@
       <c r="AE173" s="9" t="n">
         <v>0.025</v>
       </c>
-      <c r="AF173" s="41"/>
+      <c r="AF173" s="42"/>
       <c r="AG173" s="6"/>
       <c r="AH173" s="6" t="s">
         <v>520</v>
@@ -16193,7 +16205,7 @@
       <c r="X174" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="Y174" s="42" t="s">
+      <c r="Y174" s="43" t="s">
         <v>532</v>
       </c>
       <c r="Z174" s="6"/>
@@ -16681,7 +16693,7 @@
       <c r="AD180" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AE180" s="43" t="n">
+      <c r="AE180" s="44" t="n">
         <v>0.025</v>
       </c>
       <c r="AF180" s="6"/>
@@ -16699,7 +16711,7 @@
         <v>155</v>
       </c>
       <c r="AL180" s="6"/>
-      <c r="AM180" s="44" t="n">
+      <c r="AM180" s="45" t="n">
         <v>312</v>
       </c>
     </row>
@@ -16716,7 +16728,7 @@
       <c r="D181" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E181" s="44" t="s">
+      <c r="E181" s="45" t="s">
         <v>330</v>
       </c>
       <c r="F181" s="6" t="s">
@@ -16758,7 +16770,7 @@
       <c r="AD181" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="AE181" s="43" t="n">
+      <c r="AE181" s="44" t="n">
         <v>0.03</v>
       </c>
       <c r="AF181" s="6"/>
@@ -16774,7 +16786,7 @@
       <c r="AL181" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="AM181" s="44" t="n">
+      <c r="AM181" s="45" t="n">
         <v>301</v>
       </c>
     </row>
@@ -16791,7 +16803,7 @@
       <c r="D182" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E182" s="44" t="s">
+      <c r="E182" s="45" t="s">
         <v>330</v>
       </c>
       <c r="F182" s="6" t="s">
@@ -16960,7 +16972,7 @@
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
-      <c r="X184" s="45"/>
+      <c r="X184" s="46"/>
       <c r="Y184" s="6"/>
       <c r="Z184" s="6"/>
       <c r="AA184" s="20"/>
@@ -16983,7 +16995,7 @@
       <c r="AL184" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="AM184" s="44" t="n">
+      <c r="AM184" s="45" t="n">
         <v>400</v>
       </c>
     </row>
@@ -17006,7 +17018,7 @@
       <c r="F185" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="G185" s="46" t="s">
+      <c r="G185" s="47" t="s">
         <v>569</v>
       </c>
       <c r="H185" s="6" t="s">
@@ -17046,7 +17058,7 @@
       <c r="AD185" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AE185" s="43" t="n">
+      <c r="AE185" s="44" t="n">
         <v>0.01</v>
       </c>
       <c r="AF185" s="6"/>
@@ -17123,7 +17135,7 @@
       <c r="AD186" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE186" s="47" t="n">
+      <c r="AE186" s="48" t="n">
         <v>0.01</v>
       </c>
       <c r="AF186" s="14"/>
@@ -17200,7 +17212,7 @@
       <c r="AD187" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE187" s="48" t="n">
+      <c r="AE187" s="49" t="n">
         <v>0.01</v>
       </c>
       <c r="AF187" s="14"/>
@@ -17234,10 +17246,10 @@
       <c r="E188" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="F188" s="40" t="s">
+      <c r="F188" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="G188" s="40" t="s">
+      <c r="G188" s="41" t="s">
         <v>579</v>
       </c>
       <c r="H188" s="14" t="s">
@@ -17250,7 +17262,7 @@
       <c r="K188" s="15"/>
       <c r="L188" s="15"/>
       <c r="M188" s="14"/>
-      <c r="N188" s="49" t="s">
+      <c r="N188" s="50" t="s">
         <v>580</v>
       </c>
       <c r="O188" s="16"/>
@@ -17267,7 +17279,7 @@
       <c r="V188" s="14"/>
       <c r="W188" s="14"/>
       <c r="X188" s="0"/>
-      <c r="Y188" s="49" t="s">
+      <c r="Y188" s="50" t="s">
         <v>580</v>
       </c>
       <c r="Z188" s="31"/>
@@ -17277,7 +17289,7 @@
       <c r="AD188" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AE188" s="48" t="n">
+      <c r="AE188" s="49" t="n">
         <v>0.01</v>
       </c>
       <c r="AF188" s="14"/>
@@ -17308,13 +17320,13 @@
       <c r="D189" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E189" s="44" t="s">
+      <c r="E189" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="F189" s="44" t="s">
+      <c r="F189" s="45" t="s">
         <v>583</v>
       </c>
-      <c r="G189" s="44" t="s">
+      <c r="G189" s="45" t="s">
         <v>584</v>
       </c>
       <c r="H189" s="6" t="s">
@@ -17379,7 +17391,7 @@
       <c r="F190" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="G190" s="38" t="s">
+      <c r="G190" s="39" t="s">
         <v>590</v>
       </c>
       <c r="H190" s="6" t="s">
@@ -17392,7 +17404,7 @@
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="6"/>
-      <c r="N190" s="50"/>
+      <c r="N190" s="51"/>
       <c r="O190" s="6"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6"/>
@@ -17438,13 +17450,13 @@
       <c r="D191" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E191" s="44" t="s">
+      <c r="E191" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="F191" s="44" t="s">
+      <c r="F191" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="G191" s="44" t="s">
+      <c r="G191" s="45" t="s">
         <v>564</v>
       </c>
       <c r="H191" s="6" t="s">
@@ -17462,7 +17474,7 @@
       <c r="N191" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="O191" s="51"/>
+      <c r="O191" s="52"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6"/>
       <c r="R191" s="6"/>
@@ -17507,13 +17519,13 @@
       <c r="D192" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E192" s="44" t="s">
+      <c r="E192" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="F192" s="44" t="s">
+      <c r="F192" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="G192" s="44" t="s">
+      <c r="G192" s="45" t="s">
         <v>564</v>
       </c>
       <c r="H192" s="6" t="s">
@@ -17531,7 +17543,7 @@
       <c r="N192" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="O192" s="51"/>
+      <c r="O192" s="52"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6"/>
       <c r="R192" s="6"/>
@@ -17576,13 +17588,13 @@
       <c r="D193" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E193" s="44" t="s">
+      <c r="E193" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="F193" s="44" t="s">
+      <c r="F193" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="G193" s="44" t="s">
+      <c r="G193" s="45" t="s">
         <v>564</v>
       </c>
       <c r="H193" s="6" t="s">
@@ -17600,7 +17612,7 @@
       <c r="N193" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="O193" s="51"/>
+      <c r="O193" s="52"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6"/>
       <c r="R193" s="6"/>
@@ -17645,13 +17657,13 @@
       <c r="D194" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E194" s="44" t="s">
+      <c r="E194" s="45" t="s">
         <v>592</v>
       </c>
-      <c r="F194" s="44" t="s">
+      <c r="F194" s="45" t="s">
         <v>593</v>
       </c>
-      <c r="G194" s="44" t="s">
+      <c r="G194" s="45" t="s">
         <v>564</v>
       </c>
       <c r="H194" s="6" t="s">
@@ -17669,7 +17681,7 @@
       <c r="N194" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="O194" s="51"/>
+      <c r="O194" s="52"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6"/>
       <c r="R194" s="6"/>
@@ -17714,13 +17726,13 @@
       <c r="D195" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E195" s="44" t="s">
+      <c r="E195" s="45" t="s">
         <v>601</v>
       </c>
-      <c r="F195" s="44" t="s">
+      <c r="F195" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="G195" s="44" t="s">
+      <c r="G195" s="45" t="s">
         <v>603</v>
       </c>
       <c r="H195" s="6" t="s">
@@ -17733,7 +17745,7 @@
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
       <c r="M195" s="6"/>
-      <c r="N195" s="52"/>
+      <c r="N195" s="53"/>
       <c r="O195" s="6"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6"/>
@@ -17779,13 +17791,13 @@
       <c r="D196" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E196" s="44" t="s">
+      <c r="E196" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="F196" s="44" t="s">
+      <c r="F196" s="45" t="s">
         <v>607</v>
       </c>
-      <c r="G196" s="44" t="s">
+      <c r="G196" s="45" t="s">
         <v>608</v>
       </c>
       <c r="H196" s="6" t="s">
@@ -17844,13 +17856,13 @@
       <c r="D197" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E197" s="44" t="s">
+      <c r="E197" s="45" t="s">
         <v>610</v>
       </c>
-      <c r="F197" s="44" t="s">
+      <c r="F197" s="45" t="s">
         <v>611</v>
       </c>
-      <c r="G197" s="44" t="s">
+      <c r="G197" s="45" t="s">
         <v>612</v>
       </c>
       <c r="H197" s="6" t="s">
@@ -17911,13 +17923,13 @@
       <c r="D198" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E198" s="44" t="s">
+      <c r="E198" s="45" t="s">
         <v>616</v>
       </c>
-      <c r="F198" s="44" t="s">
+      <c r="F198" s="45" t="s">
         <v>617</v>
       </c>
-      <c r="G198" s="44" t="s">
+      <c r="G198" s="45" t="s">
         <v>618</v>
       </c>
       <c r="H198" s="6" t="s">
@@ -17978,13 +17990,13 @@
       <c r="D199" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E199" s="44" t="s">
+      <c r="E199" s="45" t="s">
         <v>622</v>
       </c>
-      <c r="F199" s="44" t="s">
+      <c r="F199" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="G199" s="44" t="s">
+      <c r="G199" s="45" t="s">
         <v>624</v>
       </c>
       <c r="H199" s="6" t="s">
@@ -18047,13 +18059,13 @@
       <c r="D200" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E200" s="44" t="s">
+      <c r="E200" s="45" t="s">
         <v>622</v>
       </c>
-      <c r="F200" s="44" t="s">
+      <c r="F200" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="G200" s="44" t="s">
+      <c r="G200" s="45" t="s">
         <v>624</v>
       </c>
       <c r="H200" s="6" t="s">
@@ -18068,7 +18080,7 @@
       <c r="M200" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="N200" s="53" t="s">
+      <c r="N200" s="54" t="s">
         <v>628</v>
       </c>
       <c r="O200" s="6"/>
@@ -18116,13 +18128,13 @@
       <c r="D201" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E201" s="44" t="s">
+      <c r="E201" s="45" t="s">
         <v>622</v>
       </c>
-      <c r="F201" s="44" t="s">
+      <c r="F201" s="45" t="s">
         <v>623</v>
       </c>
-      <c r="G201" s="44" t="s">
+      <c r="G201" s="45" t="s">
         <v>624</v>
       </c>
       <c r="H201" s="6" t="s">
@@ -18137,7 +18149,7 @@
       <c r="M201" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="N201" s="53" t="s">
+      <c r="N201" s="54" t="s">
         <v>629</v>
       </c>
       <c r="O201" s="6"/>
@@ -18185,11 +18197,11 @@
       <c r="D202" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="E202" s="44"/>
-      <c r="F202" s="44" t="s">
+      <c r="E202" s="45"/>
+      <c r="F202" s="45" t="s">
         <v>631</v>
       </c>
-      <c r="G202" s="44" t="s">
+      <c r="G202" s="45" t="s">
         <v>632</v>
       </c>
       <c r="H202" s="6" t="s">
@@ -18201,7 +18213,7 @@
       <c r="J202" s="8"/>
       <c r="K202" s="8"/>
       <c r="L202" s="6"/>
-      <c r="M202" s="53"/>
+      <c r="M202" s="54"/>
       <c r="N202" s="6"/>
       <c r="O202" s="6"/>
       <c r="P202" s="6"/>
@@ -18224,7 +18236,7 @@
       <c r="AE202" s="6"/>
       <c r="AF202" s="6"/>
       <c r="AG202" s="6"/>
-      <c r="AH202" s="54"/>
+      <c r="AH202" s="55"/>
       <c r="AI202" s="6"/>
       <c r="AJ202" s="6"/>
       <c r="AK202" s="6" t="n">

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -19,6 +19,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2586,52 +2587,51 @@
   </sheetPr>
   <dimension ref="A1:AM202"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F188" activeCellId="0" sqref="F188"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="65.5587044534413"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="62.9878542510121"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="67.0566801619433"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="45.6761133603239"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="91.6923076923077"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="131.971659919028"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="58.165991902834"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.4453441295547"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="133.14979757085"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="58.5951417004049"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="33" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="100.368421052632"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="101.226720647773"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="1" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="53" min="40" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="54" min="54" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="55" style="0" width="8.57085020242915"/>

--- a/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
+++ b/Projects/CCRU/Data/KPIs_2019/PoS 2019 - MT Conv Big - CAP.xlsx
@@ -20,6 +20,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Conv_B_CAP!$A$1:$AM$202</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2587,47 +2588,47 @@
   </sheetPr>
   <dimension ref="A1:AM202"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="T1" activeCellId="0" sqref="T1"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="N107" activeCellId="0" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.0931174089069"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="71.8785425101215"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="72.5182186234818"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="45.6761133603239"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="1" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="1" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="1" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="92.4453441295547"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="133.14979757085"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="58.5951417004049"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="93.2995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="134.327935222672"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="59.0242914979757"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="1" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="29" min="29" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="1" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="31" min="31" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="33" min="32" style="1" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="101.226720647773"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="1" width="102.085020242915"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="1" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="1" width="7.92712550607287"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="38" min="38" style="1" width="11.3562753036437"/>
